--- a/sriramModel-nelson-melancholic-patientID_60-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.156778649218838</v>
+        <v>1.246882321601831</v>
       </c>
       <c r="C2">
-        <v>1.216177196312064</v>
+        <v>1.19192302986134</v>
       </c>
       <c r="D2">
-        <v>1.189303734887146</v>
+        <v>1.298957694922907</v>
       </c>
       <c r="E2">
-        <v>1.061707855456406</v>
+        <v>1.04640885816641</v>
       </c>
       <c r="F2">
-        <v>1.298642906080288</v>
+        <v>1.298930835019174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.312961766001208</v>
+        <v>1.492212999587922</v>
       </c>
       <c r="C3">
-        <v>1.431800879107481</v>
+        <v>1.38266757503292</v>
       </c>
       <c r="D3">
-        <v>1.377578921781887</v>
+        <v>1.597678170904344</v>
       </c>
       <c r="E3">
-        <v>1.123329356672425</v>
+        <v>1.092735050454512</v>
       </c>
       <c r="F3">
-        <v>1.596990347976246</v>
+        <v>1.597622713993129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.468675760556203</v>
+        <v>1.73606644027982</v>
       </c>
       <c r="C4">
-        <v>1.646902710776164</v>
+        <v>1.572326650483902</v>
       </c>
       <c r="D4">
-        <v>1.564888929082428</v>
+        <v>1.896173499872854</v>
       </c>
       <c r="E4">
-        <v>1.184866243597893</v>
+        <v>1.138979569789677</v>
       </c>
       <c r="F4">
-        <v>1.895061683829498</v>
+        <v>1.896087540227843</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.624010139737321</v>
+        <v>1.978511554071109</v>
       </c>
       <c r="C5">
-        <v>1.861511584496448</v>
+        <v>1.760982243281657</v>
       </c>
       <c r="D5">
-        <v>1.751291290031761</v>
+        <v>2.194454848211</v>
       </c>
       <c r="E5">
-        <v>1.246320192065991</v>
+        <v>1.18514339025416</v>
       </c>
       <c r="F5">
-        <v>2.192874425276535</v>
+        <v>2.194336296454069</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.779030571732239</v>
+        <v>2.219612077081254</v>
       </c>
       <c r="C6">
-        <v>2.075653817274389</v>
+        <v>1.948706985044328</v>
       </c>
       <c r="D6">
-        <v>1.936838174871757</v>
+        <v>2.492532527245872</v>
       </c>
       <c r="E6">
-        <v>1.307692816139233</v>
+        <v>1.23122746662109</v>
       </c>
       <c r="F6">
-        <v>2.490444390949918</v>
+        <v>2.492379097686892</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933786953297453</v>
+        <v>2.459427244249596</v>
       </c>
       <c r="C7">
-        <v>2.289353519511645</v>
+        <v>2.135565592580065</v>
       </c>
       <c r="D7">
-        <v>2.121577218217133</v>
+        <v>2.790416103332642</v>
       </c>
       <c r="E7">
-        <v>1.368985670042145</v>
+        <v>1.277232734631557</v>
       </c>
       <c r="F7">
-        <v>2.787785969292324</v>
+        <v>2.790225298983208</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.088317947454323</v>
+        <v>2.698012199163669</v>
       </c>
       <c r="C8">
-        <v>2.50263282531647</v>
+        <v>2.321616099338509</v>
       </c>
       <c r="D8">
-        <v>2.30555202834211</v>
+        <v>3.088114464818634</v>
       </c>
       <c r="E8">
-        <v>1.430200249779906</v>
+        <v>1.323160111324788</v>
       </c>
       <c r="F8">
-        <v>3.084912281209041</v>
+        <v>3.087883560297411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.242654135428227</v>
+        <v>2.935418330502042</v>
       </c>
       <c r="C9">
-        <v>2.715512077476272</v>
+        <v>2.506910664457532</v>
       </c>
       <c r="D9">
-        <v>2.488802596063025</v>
+        <v>3.385635877502991</v>
       </c>
       <c r="E9">
-        <v>1.491337994569096</v>
+        <v>1.369010495207539</v>
       </c>
       <c r="F9">
-        <v>3.3818353114485</v>
+        <v>3.385361900332266</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.396820130109257</v>
+        <v>3.171693625267916</v>
       </c>
       <c r="C10">
-        <v>2.928010007439468</v>
+        <v>2.691496334248851</v>
       </c>
       <c r="D10">
-        <v>2.671365704357719</v>
+        <v>3.682988039779377</v>
       </c>
       <c r="E10">
-        <v>1.552400288981319</v>
+        <v>1.414784766662327</v>
       </c>
       <c r="F10">
-        <v>3.678566035699464</v>
+        <v>3.682667751895212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.550836023139459</v>
+        <v>3.406882986839477</v>
       </c>
       <c r="C11">
-        <v>3.140143906450236</v>
+        <v>2.875415732130735</v>
       </c>
       <c r="D11">
-        <v>2.853275293711083</v>
+        <v>3.980178135556386</v>
       </c>
       <c r="E11">
-        <v>1.613388464373743</v>
+        <v>1.46048378821906</v>
       </c>
       <c r="F11">
-        <v>3.975114538678727</v>
+        <v>3.979808012496848</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.704718361212592</v>
+        <v>3.641028481250272</v>
       </c>
       <c r="C12">
-        <v>3.351929755752894</v>
+        <v>3.058707619656918</v>
       </c>
       <c r="D12">
-        <v>3.034562729893396</v>
+        <v>4.277212874931744</v>
       </c>
       <c r="E12">
-        <v>1.674303799648727</v>
+        <v>1.506108404684741</v>
       </c>
       <c r="F12">
-        <v>4.271490102725547</v>
+        <v>4.27678908375113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.858480995501433</v>
+        <v>3.874169570235906</v>
       </c>
       <c r="C13">
-        <v>3.563382338310615</v>
+        <v>3.241407348600494</v>
       </c>
       <c r="D13">
-        <v>3.21525705812126</v>
+        <v>4.574098530190899</v>
       </c>
       <c r="E13">
-        <v>1.735147522237071</v>
+        <v>1.551659443187335</v>
       </c>
       <c r="F13">
-        <v>4.567701283327641</v>
+        <v>4.573616905287239</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.012135630973543</v>
+        <v>4.106343303021843</v>
       </c>
       <c r="C14">
-        <v>3.774515353351119</v>
+        <v>3.423547240772452</v>
       </c>
       <c r="D14">
-        <v>3.395385259667525</v>
+        <v>4.870840970997726</v>
       </c>
       <c r="E14">
-        <v>1.795920809067919</v>
+        <v>1.597137713232868</v>
       </c>
       <c r="F14">
-        <v>4.863755985969353</v>
+        <v>4.870296989229565</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.165692189274092</v>
+        <v>4.337584511945171</v>
       </c>
       <c r="C15">
-        <v>3.985341490771802</v>
+        <v>3.605156925314648</v>
       </c>
       <c r="D15">
-        <v>3.574972357013559</v>
+        <v>5.167445690214171</v>
       </c>
       <c r="E15">
-        <v>1.856624787252362</v>
+        <v>1.642544006663043</v>
       </c>
       <c r="F15">
-        <v>5.15966151621663</v>
+        <v>5.166834443763766</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.319159126755935</v>
+        <v>4.567925999522992</v>
       </c>
       <c r="C16">
-        <v>4.195872509339154</v>
+        <v>3.786263635869885</v>
       </c>
       <c r="D16">
-        <v>3.754041670087698</v>
+        <v>5.46391782566073</v>
       </c>
       <c r="E16">
-        <v>1.917260534419405</v>
+        <v>1.687879097579137</v>
       </c>
       <c r="F16">
-        <v>5.455424629347517</v>
+        <v>5.463233994115448</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.472543719401444</v>
+        <v>4.797398691188357</v>
       </c>
       <c r="C17">
-        <v>4.406119338629591</v>
+        <v>3.966892463346599</v>
       </c>
       <c r="D17">
-        <v>3.93261496741123</v>
+        <v>5.760262194003428</v>
       </c>
       <c r="E17">
-        <v>1.977829078849241</v>
+        <v>1.733143742046623</v>
       </c>
       <c r="F17">
-        <v>5.75105159858019</v>
+        <v>5.759500014089936</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.625852258736344</v>
+        <v>5.026031759360336</v>
       </c>
       <c r="C18">
-        <v>4.616092131607989</v>
+        <v>4.147066569712481</v>
       </c>
       <c r="D18">
-        <v>4.110712576299973</v>
+        <v>6.056483307417272</v>
       </c>
       <c r="E18">
-        <v>2.038331399390183</v>
+        <v>1.778338677672898</v>
       </c>
       <c r="F18">
-        <v>6.046548248389432</v>
+        <v>6.055636541050311</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.779090184297972</v>
+        <v>5.25385272683284</v>
       </c>
       <c r="C19">
-        <v>4.825800300701691</v>
+        <v>4.326807373333128</v>
       </c>
       <c r="D19">
-        <v>4.288353477693565</v>
+        <v>6.352585382947828</v>
       </c>
       <c r="E19">
-        <v>2.098768424859455</v>
+        <v>1.823464623161499</v>
       </c>
       <c r="F19">
-        <v>6.341919975860502</v>
+        <v>6.351647284133561</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.932262263608344</v>
+        <v>5.480887577761649</v>
       </c>
       <c r="C20">
-        <v>5.035252568142357</v>
+        <v>4.506134712208399</v>
       </c>
       <c r="D20">
-        <v>4.465555422725707</v>
+        <v>6.648572356207783</v>
       </c>
       <c r="E20">
-        <v>2.159141035247025</v>
+        <v>1.868522277474562</v>
       </c>
       <c r="F20">
-        <v>6.637171781874823</v>
+        <v>6.647535636491179</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.085372588993132</v>
+        <v>5.707160863759145</v>
       </c>
       <c r="C21">
-        <v>5.244457016622227</v>
+        <v>4.685066986945288</v>
       </c>
       <c r="D21">
-        <v>4.642335025118591</v>
+        <v>6.944447895053763</v>
       </c>
       <c r="E21">
-        <v>2.21945005812534</v>
+        <v>1.913512318866588</v>
       </c>
       <c r="F21">
-        <v>6.932308302349997</v>
+        <v>6.943304687405329</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.23842469243713</v>
+        <v>5.9326957910863</v>
       </c>
       <c r="C22">
-        <v>5.453421119966521</v>
+        <v>4.863621284122909</v>
       </c>
       <c r="D22">
-        <v>4.818707840253476</v>
+        <v>7.240215405924414</v>
       </c>
       <c r="E22">
-        <v>2.279696270321006</v>
+        <v>1.958435403592461</v>
       </c>
       <c r="F22">
-        <v>7.227333825722082</v>
+        <v>7.238957227477994</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.391421616088794</v>
+        <v>6.157514294032683</v>
       </c>
       <c r="C23">
-        <v>5.662151783822243</v>
+        <v>5.04181348227515</v>
       </c>
       <c r="D23">
-        <v>4.994688435170026</v>
+        <v>7.535878040981602</v>
       </c>
       <c r="E23">
-        <v>2.339880393416065</v>
+        <v>2.003292164568591</v>
       </c>
       <c r="F23">
-        <v>7.52225231518477</v>
+        <v>7.534495754512602</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.544365960886005</v>
+        <v>6.381637099105113</v>
       </c>
       <c r="C24">
-        <v>5.870655359506924</v>
+        <v>5.219658343491754</v>
       </c>
       <c r="D24">
-        <v>5.170290436450695</v>
+        <v>7.83143869723222</v>
       </c>
       <c r="E24">
-        <v>2.400003093219093</v>
+        <v>2.048083209050424</v>
       </c>
       <c r="F24">
-        <v>7.81706741581601</v>
+        <v>7.829922471873862</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.697259929563677</v>
+        <v>6.605083781993547</v>
       </c>
       <c r="C25">
-        <v>6.078937670936694</v>
+        <v>5.397169592057337</v>
       </c>
       <c r="D25">
-        <v>5.345526578226528</v>
+        <v>8.126900015091975</v>
       </c>
       <c r="E25">
-        <v>2.460064977273977</v>
+        <v>2.092809116147142</v>
       </c>
       <c r="F25">
-        <v>8.111782461718096</v>
+        <v>8.125239287234955</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.850105346800205</v>
+        <v>6.827872817255954</v>
       </c>
       <c r="C26">
-        <v>6.287004038130465</v>
+        <v>5.574359980744886</v>
       </c>
       <c r="D26">
-        <v>5.52040874051109</v>
+        <v>8.422264378843455</v>
       </c>
       <c r="E26">
-        <v>2.520066590845525</v>
+        <v>2.13747043385006</v>
       </c>
       <c r="F26">
-        <v>8.406400493077198</v>
+        <v>8.420447811487815</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.002903676074186</v>
+        <v>7.050021619468307</v>
       </c>
       <c r="C27">
-        <v>6.494859262868737</v>
+        <v>5.751241345113257</v>
       </c>
       <c r="D27">
-        <v>5.694947967631077</v>
+        <v>8.717533896650536</v>
       </c>
       <c r="E27">
-        <v>2.580008414359019</v>
+        <v>2.182067675062142</v>
       </c>
       <c r="F27">
-        <v>8.700924234979061</v>
+        <v>8.715549340862058</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.155656033959186</v>
+        <v>7.271546575469371</v>
       </c>
       <c r="C28">
-        <v>6.702507657104274</v>
+        <v>5.927824645301662</v>
       </c>
       <c r="D28">
-        <v>5.869154490156753</v>
+        <v>9.012710392648509</v>
       </c>
       <c r="E28">
-        <v>2.639890858136086</v>
+        <v>2.226601312435578</v>
       </c>
       <c r="F28">
-        <v>8.99535610510053</v>
+        <v>9.010544849571001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.308363179425383</v>
+        <v>7.492463066428545</v>
       </c>
       <c r="C29">
-        <v>6.909953035125399</v>
+        <v>6.104119996258212</v>
       </c>
       <c r="D29">
-        <v>6.043037729634164</v>
+        <v>9.307795391400488</v>
       </c>
       <c r="E29">
-        <v>2.699714255729593</v>
+        <v>2.271071772126144</v>
       </c>
       <c r="F29">
-        <v>9.289698205716359</v>
+        <v>9.305434975656558</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.461025518557426</v>
+        <v>7.712785480103387</v>
       </c>
       <c r="C30">
-        <v>7.117198711113464</v>
+        <v>6.280136687513226</v>
       </c>
       <c r="D30">
-        <v>6.216606295366789</v>
+        <v>9.602790088754931</v>
       </c>
       <c r="E30">
-        <v>2.7594788603303</v>
+        <v>2.315479427112058</v>
       </c>
       <c r="F30">
-        <v>9.583952304478631</v>
+        <v>9.600219995215564</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.613643088789992</v>
+        <v>7.932527213812167</v>
       </c>
       <c r="C31">
-        <v>7.324247493662643</v>
+        <v>6.455883203701366</v>
       </c>
       <c r="D31">
-        <v>6.389867956519033</v>
+        <v>9.89769532087484</v>
       </c>
       <c r="E31">
-        <v>2.81918483277285</v>
+        <v>2.359824586646833</v>
       </c>
       <c r="F31">
-        <v>9.878119813036424</v>
+        <v>9.894899795678544</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.766215541111096</v>
+        <v>8.151700665625771</v>
       </c>
       <c r="C32">
-        <v>7.531101671306407</v>
+        <v>6.631367198189103</v>
       </c>
       <c r="D32">
-        <v>6.562829608191626</v>
+        <v>10.19251153167319</v>
       </c>
       <c r="E32">
-        <v>2.878832234551935</v>
+        <v>2.404107484393714</v>
       </c>
       <c r="F32">
-        <v>10.17220176595621</v>
+        <v>10.1894738479463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.918742100040208</v>
+        <v>8.370317212066432</v>
       </c>
       <c r="C33">
-        <v>7.737762979209418</v>
+        <v>6.806595473447318</v>
       </c>
       <c r="D33">
-        <v>6.73549722005984</v>
+        <v>10.48723871731323</v>
       </c>
       <c r="E33">
-        <v>2.938421016724594</v>
+        <v>2.448328263812928</v>
       </c>
       <c r="F33">
-        <v>10.4661987742093</v>
+        <v>10.48394115813515</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.071221519837782</v>
+        <v>8.588387170207993</v>
       </c>
       <c r="C34">
-        <v>7.944232579338985</v>
+        <v>6.981573959543883</v>
       </c>
       <c r="D34">
-        <v>6.907875763430928</v>
+        <v>10.78187636342596</v>
       </c>
       <c r="E34">
-        <v>2.997951002118054</v>
+        <v>2.492486960696305</v>
       </c>
       <c r="F34">
-        <v>10.76011097571881</v>
+        <v>10.7783002149603</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6.223652027658812</v>
+        <v>8.805919741426182</v>
       </c>
       <c r="C35">
-        <v>8.150511012332025</v>
+        <v>7.156307620063338</v>
       </c>
       <c r="D35">
-        <v>7.0799691036012</v>
+        <v>11.07642337884564</v>
       </c>
       <c r="E35">
-        <v>3.057421875367222</v>
+        <v>2.536583477620834</v>
       </c>
       <c r="F35">
-        <v>11.05393798543233</v>
+        <v>11.07254893460703</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.376031249208737</v>
+        <v>9.022922933121173</v>
       </c>
       <c r="C36">
-        <v>8.356598137047389</v>
+        <v>7.330800374752562</v>
       </c>
       <c r="D36">
-        <v>7.25177986914469</v>
+        <v>11.37087800167395</v>
       </c>
       <c r="E36">
-        <v>3.116833157004444</v>
+        <v>2.580617554261915</v>
       </c>
       <c r="F36">
-        <v>11.34767881113161</v>
+        <v>11.36668457971766</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.528356106527425</v>
+        <v>9.239403453192629</v>
       </c>
       <c r="C37">
-        <v>8.562493079278569</v>
+        <v>7.505055002551646</v>
       </c>
       <c r="D37">
-        <v>7.423309290546669</v>
+        <v>11.66523767803932</v>
       </c>
       <c r="E37">
-        <v>3.176184177996768</v>
+        <v>2.624588733936091</v>
       </c>
       <c r="F37">
-        <v>11.64133175367819</v>
+        <v>11.66070365913083</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.680622695117594</v>
+        <v>9.455366571842562</v>
       </c>
       <c r="C38">
-        <v>8.76819413744521</v>
+        <v>7.679072956609705</v>
       </c>
       <c r="D38">
-        <v>7.594556984104064</v>
+        <v>11.95949892930827</v>
       </c>
       <c r="E38">
-        <v>3.235474061184673</v>
+        <v>2.668496313651915</v>
       </c>
       <c r="F38">
-        <v>11.93489430375464</v>
+        <v>11.95460181934783</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.832826136822837</v>
+        <v>9.670815942770137</v>
       </c>
       <c r="C39">
-        <v>8.973698663618398</v>
+        <v>7.852854148004808</v>
       </c>
       <c r="D39">
-        <v>7.765520664456073</v>
+        <v>12.25365719664596</v>
       </c>
       <c r="E39">
-        <v>3.294701667286501</v>
+        <v>2.712339283804117</v>
       </c>
       <c r="F39">
-        <v>12.22836299879703</v>
+        <v>12.24837370919512</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.984960380977629</v>
+        <v>9.885753368724552</v>
       </c>
       <c r="C40">
-        <v>9.179002962283004</v>
+        <v>8.026396712893989</v>
       </c>
       <c r="D40">
-        <v>7.936195792496346</v>
+        <v>12.54770660001021</v>
       </c>
       <c r="E40">
-        <v>3.353865566338962</v>
+        <v>2.756116250177109</v>
       </c>
       <c r="F40">
-        <v>12.52173321929268</v>
+        <v>12.54201278173942</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7.137017944735076</v>
+        <v>10.10017850292489</v>
       </c>
       <c r="C41">
-        <v>9.384102104148301</v>
+        <v>8.199696642435059</v>
       </c>
       <c r="D41">
-        <v>8.106575158285555</v>
+        <v>12.84163970891016</v>
       </c>
       <c r="E41">
-        <v>3.412963978481098</v>
+        <v>2.799825351872389</v>
       </c>
       <c r="F41">
-        <v>12.81499895867849</v>
+        <v>12.83551110454251</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7.288989588204845</v>
+        <v>10.31408846413267</v>
       </c>
       <c r="C42">
-        <v>9.588989719795185</v>
+        <v>8.372747301216515</v>
       </c>
       <c r="D42">
-        <v>8.276648308143056</v>
+        <v>13.13544716184326</v>
       </c>
       <c r="E42">
-        <v>3.471994702280945</v>
+        <v>2.8434641218059</v>
       </c>
       <c r="F42">
-        <v>13.10815253936</v>
+        <v>13.12885904001365</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.440863937943838</v>
+        <v>10.52747734104317</v>
       </c>
       <c r="C43">
-        <v>9.79365771170669</v>
+        <v>8.545538881749247</v>
       </c>
       <c r="D43">
-        <v>8.446400807841457</v>
+        <v>13.4291172599631</v>
       </c>
       <c r="E43">
-        <v>3.530955024763002</v>
+        <v>2.887029331671282</v>
       </c>
       <c r="F43">
-        <v>13.40118424991531</v>
+        <v>13.42204490226503</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.592626939323919</v>
+        <v>10.74033555269187</v>
       </c>
       <c r="C44">
-        <v>9.998095927198859</v>
+        <v>8.718057714881571</v>
       </c>
       <c r="D44">
-        <v>8.615813310816423</v>
+        <v>13.72263544952085</v>
       </c>
       <c r="E44">
-        <v>3.589841615211732</v>
+        <v>2.930516805640976</v>
       </c>
       <c r="F44">
-        <v>13.69408186716486</v>
+        <v>13.71505452376831</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.744261165496758</v>
+        <v>10.95264902002372</v>
       </c>
       <c r="C45">
-        <v>10.20229174189089</v>
+        <v>8.890285193915831</v>
       </c>
       <c r="D45">
-        <v>8.784860474224212</v>
+        <v>14.01598362998132</v>
       </c>
       <c r="E45">
-        <v>3.648650394730403</v>
+        <v>2.973921162828396</v>
       </c>
       <c r="F45">
-        <v>13.98683004551864</v>
+        <v>14.00787067272111</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.895744902538475</v>
+        <v>11.16439808881406</v>
       </c>
       <c r="C46">
-        <v>10.40622949772578</v>
+        <v>9.062196715913764</v>
       </c>
       <c r="D46">
-        <v>8.953509480137669</v>
+        <v>14.30913924698738</v>
       </c>
       <c r="E46">
-        <v>3.707376361248604</v>
+        <v>3.01723547723224</v>
       </c>
       <c r="F46">
-        <v>14.27940950700728</v>
+        <v>14.30047228885807</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8.047051114157998</v>
+        <v>11.37555612080861</v>
       </c>
       <c r="C47">
-        <v>10.60988976368339</v>
+        <v>9.233759824823212</v>
       </c>
       <c r="D47">
-        <v>9.121717936330441</v>
+        <v>14.60207411028595</v>
       </c>
       <c r="E47">
-        <v>3.766013363072789</v>
+        <v>3.060450896469218</v>
       </c>
       <c r="F47">
-        <v>14.57179598763176</v>
+        <v>14.59283348398077</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>8.198145891351469</v>
+        <v>11.58608764074194</v>
       </c>
       <c r="C48">
-        <v>10.81324837216247</v>
+        <v>9.404932224156431</v>
       </c>
       <c r="D48">
-        <v>9.289431352262758</v>
+        <v>14.89475283177823</v>
       </c>
       <c r="E48">
-        <v>3.824553807797715</v>
+        <v>3.103556043632059</v>
       </c>
       <c r="F48">
-        <v>14.86395882784336</v>
+        <v>14.88492221766236</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.348986345641944</v>
+        <v>11.7959459380799</v>
       </c>
       <c r="C49">
-        <v>11.0162751433779</v>
+        <v>9.575659197929431</v>
       </c>
       <c r="D49">
-        <v>9.456579999594057</v>
+        <v>15.18713072648808</v>
       </c>
       <c r="E49">
-        <v>3.882988279855913</v>
+        <v>3.146536359835578</v>
       </c>
       <c r="F49">
-        <v>15.15585913082698</v>
+        <v>15.17669851449074</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.499517834393348</v>
+        <v>12.00506981594021</v>
       </c>
       <c r="C50">
-        <v>11.21893221822947</v>
+        <v>9.745870134497189</v>
       </c>
       <c r="D50">
-        <v>9.623074734541827</v>
+        <v>15.47915095422782</v>
       </c>
       <c r="E50">
-        <v>3.941305051585263</v>
+        <v>3.18937326264885</v>
       </c>
       <c r="F50">
-        <v>15.44744704508832</v>
+        <v>15.46811207758019</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.649670559757723</v>
+        <v>12.21337950776987</v>
       </c>
       <c r="C51">
-        <v>11.42117165840295</v>
+        <v>9.915473991771181</v>
       </c>
       <c r="D51">
-        <v>9.788801485251653</v>
+        <v>15.77074058298673</v>
       </c>
       <c r="E51">
-        <v>3.999489426189312</v>
+        <v>3.232043051707753</v>
       </c>
       <c r="F51">
-        <v>15.73865809659382</v>
+        <v>15.75909893053754</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.799354850403279</v>
+        <v>12.42077065814763</v>
       </c>
       <c r="C52">
-        <v>11.62293215742512</v>
+        <v>10.08435349778383</v>
       </c>
       <c r="D52">
-        <v>9.953614278167557</v>
+        <v>16.06180510537676</v>
       </c>
       <c r="E52">
-        <v>4.057522854969233</v>
+        <v>3.274515517273714</v>
       </c>
       <c r="F52">
-        <v>16.02940823797177</v>
+        <v>16.04957652831006</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.948454727107096</v>
+        <v>12.6271067789821</v>
       </c>
       <c r="C53">
-        <v>11.82413465784989</v>
+        <v>10.25235797945765</v>
       </c>
       <c r="D53">
-        <v>10.11732595005628</v>
+        <v>16.35222092625517</v>
       </c>
       <c r="E53">
-        <v>4.115381805951325</v>
+        <v>3.316752220812893</v>
       </c>
       <c r="F53">
-        <v>16.31958659692689</v>
+        <v>16.33943726430204</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.09681954590523</v>
+        <v>12.83220947281647</v>
       </c>
       <c r="C54">
-        <v>12.0246760546384</v>
+        <v>10.41929343689207</v>
       </c>
       <c r="D54">
-        <v>10.27969657960783</v>
+        <v>16.64182422371767</v>
       </c>
       <c r="E54">
-        <v>4.173036150861677</v>
+        <v>3.358704392623682</v>
       </c>
       <c r="F54">
-        <v>16.60904503559411</v>
+        <v>16.62853902670054</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.244252319157392</v>
+        <v>13.03584506813618</v>
       </c>
       <c r="C55">
-        <v>12.22442014294247</v>
+        <v>10.58491093256399</v>
       </c>
       <c r="D55">
-        <v>10.44041945866642</v>
+        <v>16.93039465768462</v>
       </c>
       <c r="E55">
-        <v>4.230446937785347</v>
+        <v>3.400310392229567</v>
       </c>
       <c r="F55">
-        <v>16.89758325019928</v>
+        <v>16.9166913254517</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9.39049508173078</v>
+        <v>13.23770705803794</v>
       </c>
       <c r="C56">
-        <v>12.42318488479492</v>
+        <v>10.74889221298733</v>
       </c>
       <c r="D56">
-        <v>10.59910344199877</v>
+        <v>17.21763381684695</v>
       </c>
       <c r="E56">
-        <v>4.287563631261869</v>
+        <v>3.441492709645672</v>
       </c>
       <c r="F56">
-        <v>17.1849264454178</v>
+        <v>17.20363551069758</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>9.535209891387582</v>
+        <v>13.43739347626878</v>
       </c>
       <c r="C57">
-        <v>12.62072351061238</v>
+        <v>10.91083198928001</v>
       </c>
       <c r="D57">
-        <v>10.75525263389915</v>
+        <v>17.50313263219605</v>
       </c>
       <c r="E57">
-        <v>4.344320258688536</v>
+        <v>3.482154549208109</v>
       </c>
       <c r="F57">
-        <v>17.47069400955818</v>
+        <v>17.48901492583323</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.677954657664731</v>
+        <v>13.6343787184889</v>
       </c>
       <c r="C58">
-        <v>12.81669823796174</v>
+        <v>11.07021776337954</v>
       </c>
       <c r="D58">
-        <v>10.9082441701669</v>
+        <v>17.78632571039324</v>
       </c>
       <c r="E58">
-        <v>4.400630196267464</v>
+        <v>3.522176135775477</v>
       </c>
       <c r="F58">
-        <v>17.75435436521562</v>
+        <v>17.77233334429915</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.818153779182561</v>
+        <v>13.82797884848448</v>
       </c>
       <c r="C59">
-        <v>13.01064310464307</v>
+        <v>11.22640795059883</v>
       </c>
       <c r="D59">
-        <v>11.05730663152653</v>
+        <v>18.06643065160007</v>
       </c>
       <c r="E59">
-        <v>4.456379447132537</v>
+        <v>3.561411032172543</v>
       </c>
       <c r="F59">
-        <v>18.03516223359819</v>
+        <v>18.05289569248603</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.955065205108651</v>
+        <v>14.01731201058179</v>
       </c>
       <c r="C60">
-        <v>13.20191281373638</v>
+        <v>11.37861078340914</v>
       </c>
       <c r="D60">
-        <v>11.20150322026437</v>
+        <v>18.34236850134133</v>
       </c>
       <c r="E60">
-        <v>4.511417864193901</v>
+        <v>3.599682971570034</v>
       </c>
       <c r="F60">
-        <v>18.31207658885138</v>
+        <v>18.32972760836824</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>10.08774668653399</v>
+        <v>14.20125749596256</v>
       </c>
       <c r="C61">
-        <v>13.3896173266726</v>
+        <v>11.52586788399299</v>
       </c>
       <c r="D61">
-        <v>11.33972660471779</v>
+        <v>18.61267159987778</v>
       </c>
       <c r="E61">
-        <v>4.565548671048128</v>
+        <v>3.636783743422439</v>
       </c>
       <c r="F61">
-        <v>18.5836618845865</v>
+        <v>18.60147527519164</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10.21502829340182</v>
+        <v>14.37842076624979</v>
       </c>
       <c r="C62">
-        <v>13.57254652948429</v>
+        <v>11.66704871867474</v>
       </c>
       <c r="D62">
-        <v>11.47071588241365</v>
+        <v>18.8753933744958</v>
       </c>
       <c r="E62">
-        <v>4.618516619874925</v>
+        <v>3.672474144734858</v>
       </c>
       <c r="F62">
-        <v>18.84798692729328</v>
+        <v>18.86629580640722</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>10.33550198163146</v>
+        <v>14.54711807314186</v>
       </c>
       <c r="C63">
-        <v>13.74910011668715</v>
+        <v>11.80086692380253</v>
       </c>
       <c r="D63">
-        <v>11.59310260317277</v>
+        <v>19.12805214916385</v>
       </c>
       <c r="E63">
-        <v>4.669996081688917</v>
+        <v>3.70648796702543</v>
       </c>
       <c r="F63">
-        <v>19.10255337127418</v>
+        <v>19.12176777976004</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10.4475467700771</v>
+        <v>14.70540213076272</v>
       </c>
       <c r="C64">
-        <v>13.91725576643016</v>
+        <v>11.92592462688941</v>
       </c>
       <c r="D64">
-        <v>11.70549481738193</v>
+        <v>19.36765845774216</v>
       </c>
       <c r="E64">
-        <v>4.719582543744972</v>
+        <v>3.738540900107995</v>
       </c>
       <c r="F64">
-        <v>19.34430465382349</v>
+        <v>19.36487556958264</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10.54940182738896</v>
+        <v>14.85114430105142</v>
       </c>
       <c r="C65">
-        <v>14.07462155143648</v>
+        <v>12.04079391694035</v>
       </c>
       <c r="D65">
-        <v>11.80659726802144</v>
+        <v>19.59088142686114</v>
       </c>
       <c r="E65">
-        <v>4.766792273156981</v>
+        <v>3.768345286288657</v>
       </c>
       <c r="F65">
-        <v>19.56977836203678</v>
+        <v>19.59213555688098</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.63930186111882</v>
+        <v>14.98219582466223</v>
       </c>
       <c r="C66">
-        <v>14.21862194757993</v>
+        <v>12.14413618465451</v>
       </c>
       <c r="D66">
-        <v>11.89535249853291</v>
+        <v>19.7943891439044</v>
       </c>
       <c r="E66">
-        <v>4.811077048618036</v>
+        <v>3.795630312495303</v>
       </c>
       <c r="F66">
-        <v>19.77544706680589</v>
+        <v>19.79992350027636</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10.71566770030549</v>
+        <v>15.09662010462536</v>
       </c>
       <c r="C67">
-        <v>14.34683103428006</v>
+        <v>12.23484489174431</v>
       </c>
       <c r="D67">
-        <v>11.9710759748296</v>
+        <v>19.97533279130596</v>
       </c>
       <c r="E67">
-        <v>4.851860569079498</v>
+        <v>3.820165375893597</v>
       </c>
       <c r="F67">
-        <v>19.95822798558016</v>
+        <v>19.98499571609672</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10.77731951578756</v>
+        <v>15.19296044510943</v>
       </c>
       <c r="C68">
-        <v>14.4573952241714</v>
+        <v>12.31218638039431</v>
       </c>
       <c r="D68">
-        <v>12.03355105496594</v>
+        <v>20.1318528388491</v>
       </c>
       <c r="E68">
-        <v>4.888596868226162</v>
+        <v>3.841783560975272</v>
       </c>
       <c r="F68">
-        <v>20.11604351462539</v>
+        <v>20.1450877176533</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10.82365936488054</v>
+        <v>15.27047691665051</v>
       </c>
       <c r="C69">
-        <v>14.5494112307513</v>
+        <v>12.37590394133598</v>
       </c>
       <c r="D69">
-        <v>12.08305716761378</v>
+        <v>20.26343818491021</v>
       </c>
       <c r="E69">
-        <v>4.920845239217478</v>
+        <v>3.86040037553333</v>
       </c>
       <c r="F69">
-        <v>20.24823794611581</v>
+        <v>20.27938200999198</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.85476588615154</v>
+        <v>15.32927561601426</v>
       </c>
       <c r="C70">
-        <v>14.62310673041664</v>
+        <v>12.42625527587861</v>
       </c>
       <c r="D70">
-        <v>12.12032376955757</v>
+        <v>20.37099406564251</v>
       </c>
       <c r="E70">
-        <v>4.948342600131815</v>
+        <v>3.876023530225285</v>
       </c>
       <c r="F70">
-        <v>20.35568213299308</v>
+        <v>20.38865083781608</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.87137019975753</v>
+        <v>15.37028530668782</v>
       </c>
       <c r="C71">
-        <v>14.67975143281856</v>
+        <v>12.46397246108077</v>
       </c>
       <c r="D71">
-        <v>12.1464251731095</v>
+        <v>20.45660291014349</v>
       </c>
       <c r="E71">
-        <v>4.97105055253119</v>
+        <v>3.888750974809069</v>
       </c>
       <c r="F71">
-        <v>20.44053099733045</v>
+        <v>20.47502357121848</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.87472404764883</v>
+        <v>15.39509559495066</v>
       </c>
       <c r="C72">
-        <v>14.72135095897272</v>
+        <v>12.49015705604449</v>
       </c>
       <c r="D72">
-        <v>12.16264621376785</v>
+        <v>20.52309124301014</v>
       </c>
       <c r="E72">
-        <v>4.989160187388119</v>
+        <v>3.898759148856967</v>
       </c>
       <c r="F72">
-        <v>20.50575465467229</v>
+        <v>20.54150016715672</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>10.86640633661925</v>
+        <v>15.40570867408555</v>
       </c>
       <c r="C73">
-        <v>14.75026067618825</v>
+        <v>12.5061405305303</v>
       </c>
       <c r="D73">
-        <v>12.17035014817225</v>
+        <v>20.57356553360199</v>
       </c>
       <c r="E73">
-        <v>5.003053635986193</v>
+        <v>3.906282760875866</v>
       </c>
       <c r="F73">
-        <v>20.55462753905918</v>
+        <v>20.59141270265756</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>10.84812411981269</v>
+        <v>15.40428280441105</v>
       </c>
       <c r="C74">
-        <v>14.76884770233629</v>
+        <v>12.51334380746209</v>
       </c>
       <c r="D74">
-        <v>12.17087115941619</v>
+        <v>20.61104175620723</v>
       </c>
       <c r="E74">
-        <v>5.013237659553279</v>
+        <v>3.911591650326451</v>
       </c>
       <c r="F74">
-        <v>20.59032096722449</v>
+        <v>20.62799397493941</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>10.82154995232479</v>
+        <v>15.39292111157648</v>
       </c>
       <c r="C75">
-        <v>14.77926658956227</v>
+        <v>12.51316114824968</v>
       </c>
       <c r="D75">
-        <v>12.16544093371103</v>
+        <v>20.63821646832688</v>
       </c>
       <c r="E75">
-        <v>5.02027136188033</v>
+        <v>3.914968595546345</v>
       </c>
       <c r="F75">
-        <v>20.61565426026657</v>
+        <v>20.65411546908487</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>10.7882137325157</v>
+        <v>15.37353637339264</v>
       </c>
       <c r="C76">
-        <v>14.78335111595167</v>
+        <v>12.50688001397598</v>
       </c>
       <c r="D76">
-        <v>12.15514827008403</v>
+        <v>20.65736697454968</v>
       </c>
       <c r="E76">
-        <v>5.024705790742008</v>
+        <v>3.91669106073772</v>
       </c>
       <c r="F76">
-        <v>20.63299037135515</v>
+        <v>20.6721784712452</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>10.74944711023763</v>
+        <v>15.34777984685288</v>
       </c>
       <c r="C77">
-        <v>14.78259141269931</v>
+        <v>12.49563669070369</v>
       </c>
       <c r="D77">
-        <v>12.14092488762403</v>
+        <v>20.67034145539586</v>
       </c>
       <c r="E77">
-        <v>5.027043760208864</v>
+        <v>3.91701824950061</v>
       </c>
       <c r="F77">
-        <v>20.64423010926983</v>
+        <v>20.68410933989369</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>10.70636802424753</v>
+        <v>15.31702608162696</v>
       </c>
       <c r="C78">
-        <v>14.77816056113155</v>
+        <v>12.48040057396287</v>
       </c>
       <c r="D78">
-        <v>12.12354895853605</v>
+        <v>20.67859896712261</v>
       </c>
       <c r="E78">
-        <v>5.027719588892903</v>
+        <v>3.916183353930886</v>
       </c>
       <c r="F78">
-        <v>20.65085988897221</v>
+        <v>20.69141026924747</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>10.65989072592225</v>
+        <v>15.28238851705884</v>
       </c>
       <c r="C79">
-        <v>14.77096249309054</v>
+        <v>12.46197796292901</v>
       </c>
       <c r="D79">
-        <v>12.10365882355581</v>
+        <v>20.68326992578033</v>
       </c>
       <c r="E79">
-        <v>5.027093913633895</v>
+        <v>3.914390157805785</v>
       </c>
       <c r="F79">
-        <v>20.65401998811117</v>
+        <v>20.69523063807319</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10.61074901679564</v>
+        <v>15.24475205923969</v>
       </c>
       <c r="C80">
-        <v>14.76168400995402</v>
+        <v>12.44102701364468</v>
       </c>
       <c r="D80">
-        <v>12.08177128540694</v>
+        <v>20.68521929802099</v>
       </c>
       <c r="E80">
-        <v>5.02545786579379</v>
+        <v>3.911812790553824</v>
       </c>
       <c r="F80">
-        <v>20.65457429223558</v>
+        <v>20.69643918947301</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10.55952416177766</v>
+        <v>15.20481045554601</v>
       </c>
       <c r="C81">
-        <v>14.75084255518959</v>
+        <v>12.41807763902656</v>
       </c>
       <c r="D81">
-        <v>12.05830079853984</v>
+        <v>20.68510403660604</v>
       </c>
       <c r="E81">
-        <v>5.023041832746864</v>
+        <v>3.908597497824413</v>
       </c>
       <c r="F81">
-        <v>20.65317229556461</v>
+        <v>20.69568796418514</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>10.50667255113316</v>
+        <v>15.16310267533879</v>
       </c>
       <c r="C82">
-        <v>14.73882625969983</v>
+        <v>12.3935523171243</v>
       </c>
       <c r="D82">
-        <v>12.03357762351039</v>
+        <v>20.68342083336795</v>
       </c>
       <c r="E82">
-        <v>5.020025635242789</v>
+        <v>3.904865508244302</v>
       </c>
       <c r="F82">
-        <v>20.65030030253052</v>
+        <v>20.69346420030177</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>10.4525505615587</v>
+        <v>15.12004509187338</v>
       </c>
       <c r="C83">
-        <v>14.72592525778963</v>
+        <v>12.36778569919289</v>
       </c>
       <c r="D83">
-        <v>12.00786393375462</v>
+        <v>20.68054448577062</v>
       </c>
       <c r="E83">
-        <v>5.016548346753945</v>
+        <v>3.900716316286056</v>
       </c>
       <c r="F83">
-        <v>20.6463214033598</v>
+        <v>20.69013152434454</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>10.39743555716862</v>
+        <v>15.07595828909561</v>
       </c>
       <c r="C84">
-        <v>14.71235659523943</v>
+        <v>12.34104181716235</v>
       </c>
       <c r="D84">
-        <v>11.98136726930664</v>
+        <v>20.67675778710408</v>
       </c>
       <c r="E84">
-        <v>5.012716957130442</v>
+        <v>3.896230983306065</v>
       </c>
       <c r="F84">
-        <v>20.64150694472087</v>
+        <v>20.68596134159222</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>10.34154307922994</v>
+        <v>15.03108854984627</v>
       </c>
       <c r="C85">
-        <v>14.69828273589021</v>
+        <v>12.31352835482527</v>
       </c>
       <c r="D85">
-        <v>11.95425163424348</v>
+        <v>20.67227432952121</v>
       </c>
       <c r="E85">
-        <v>5.008613471817521</v>
+        <v>3.891475227248693</v>
       </c>
       <c r="F85">
-        <v>20.63605976386643</v>
+        <v>20.68115654558732</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10.28504055150917</v>
+        <v>14.98562519559035</v>
       </c>
       <c r="C86">
-        <v>14.68382558973805</v>
+        <v>12.28540854151446</v>
       </c>
       <c r="D86">
-        <v>11.92664666634222</v>
+        <v>20.66725576392597</v>
       </c>
       <c r="E86">
-        <v>5.004300651112663</v>
+        <v>3.886502139888115</v>
       </c>
       <c r="F86">
-        <v>20.63013190734838</v>
+        <v>20.67586917250166</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>10.22805822653977</v>
+        <v>14.93971378413731</v>
       </c>
       <c r="C87">
-        <v>14.66907684243138</v>
+        <v>12.25681064846568</v>
       </c>
       <c r="D87">
-        <v>11.89865493843593</v>
+        <v>20.66182476893895</v>
       </c>
       <c r="E87">
-        <v>4.999826550376785</v>
+        <v>3.881354502648879</v>
       </c>
       <c r="F87">
-        <v>20.62383754766765</v>
+        <v>20.67021344511481</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>10.17069757854795</v>
+        <v>14.89346647451278</v>
       </c>
       <c r="C88">
-        <v>14.65410566694716</v>
+        <v>12.2278356005279</v>
       </c>
       <c r="D88">
-        <v>11.87035768670378</v>
+        <v>20.6560747103198</v>
       </c>
       <c r="E88">
-        <v>4.99522797664776</v>
+        <v>3.876066740708472</v>
       </c>
       <c r="F88">
-        <v>20.61726276573096</v>
+        <v>20.66427551401267</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>10.11303779722265</v>
+        <v>14.84696982655192</v>
       </c>
       <c r="C89">
-        <v>14.63896446420941</v>
+        <v>12.19856291453968</v>
       </c>
       <c r="D89">
-        <v>11.84181934653493</v>
+        <v>20.65007689404739</v>
       </c>
       <c r="E89">
-        <v>4.990533193124235</v>
+        <v>3.870666558404749</v>
       </c>
       <c r="F89">
-        <v>20.61047261878649</v>
+        <v>20.65812054193286</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>10.05514090154034</v>
+        <v>14.80029084465529</v>
       </c>
       <c r="C90">
-        <v>14.62369303037702</v>
+        <v>12.16905534290053</v>
       </c>
       <c r="D90">
-        <v>11.81309112567191</v>
+        <v>20.64388597803602</v>
       </c>
       <c r="E90">
-        <v>4.985763933965906</v>
+        <v>3.865176248629479</v>
       </c>
       <c r="F90">
-        <v>20.60351648759952</v>
+        <v>20.6517980330336</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.997055574121784</v>
+        <v>14.75348154175525</v>
       </c>
       <c r="C91">
-        <v>14.60832173586954</v>
+        <v>12.13936256707726</v>
       </c>
       <c r="D91">
-        <v>11.78421383972005</v>
+        <v>20.63754398282716</v>
       </c>
       <c r="E91">
-        <v>4.980936959441144</v>
+        <v>3.859613758512181</v>
       </c>
       <c r="F91">
-        <v>20.59643196610726</v>
+        <v>20.64534572318252</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.938820141876349</v>
+        <v>14.70658240977541</v>
       </c>
       <c r="C92">
-        <v>14.59287382053007</v>
+        <v>12.10952400343817</v>
       </c>
       <c r="D92">
-        <v>11.75522009479014</v>
+        <v>20.63108334491773</v>
       </c>
       <c r="E92">
-        <v>4.97606523711833</v>
+        <v>3.853993560406342</v>
       </c>
       <c r="F92">
-        <v>20.58924779929439</v>
+        <v>20.63879249442689</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.880464898331605</v>
+        <v>14.65962509074572</v>
       </c>
       <c r="C93">
-        <v>14.57736715276662</v>
+        <v>12.07957101993701</v>
       </c>
       <c r="D93">
-        <v>11.72613600303589</v>
+        <v>20.62452926356949</v>
       </c>
       <c r="E93">
-        <v>4.971158820896068</v>
+        <v>3.848327337400282</v>
       </c>
       <c r="F93">
-        <v>20.58198603501035</v>
+        <v>20.63216051992579</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9.822013853375752</v>
+        <v>14.61263438219144</v>
       </c>
       <c r="C94">
-        <v>14.56181551179918</v>
+        <v>12.04952865117942</v>
       </c>
       <c r="D94">
-        <v>11.69698253626395</v>
+        <v>20.61790136728766</v>
       </c>
       <c r="E94">
-        <v>4.966225537357645</v>
+        <v>3.842624535226599</v>
       </c>
       <c r="F94">
-        <v>20.57466364049815</v>
+        <v>20.62546688713657</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.763486102389901</v>
+        <v>14.5656297988442</v>
       </c>
       <c r="C95">
-        <v>14.54622955853631</v>
+        <v>12.01941694154288</v>
       </c>
       <c r="D95">
-        <v>11.66777658410951</v>
+        <v>20.61121495263577</v>
       </c>
       <c r="E95">
-        <v>4.961271495083385</v>
+        <v>3.836892808401673</v>
       </c>
       <c r="F95">
-        <v>20.56729371679494</v>
+        <v>20.61872487371548</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.704896892015414</v>
+        <v>14.51862672528025</v>
       </c>
       <c r="C96">
-        <v>14.53061756793231</v>
+        <v>11.98925199942727</v>
       </c>
       <c r="D96">
-        <v>11.63853179670152</v>
+        <v>20.60448197340275</v>
       </c>
       <c r="E96">
-        <v>4.956301476623176</v>
+        <v>3.83113837001967</v>
       </c>
       <c r="F96">
-        <v>20.55988646589838</v>
+        <v>20.61194482421384</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.646258431552575</v>
+        <v>14.47163735502071</v>
       </c>
       <c r="C97">
-        <v>14.5149860127602</v>
+        <v>11.95904680674902</v>
       </c>
       <c r="D97">
-        <v>11.60925923376931</v>
+        <v>20.5977118503036</v>
       </c>
       <c r="E97">
-        <v>4.951319236211503</v>
+        <v>3.825366273537647</v>
       </c>
       <c r="F97">
-        <v>20.55244985805187</v>
+        <v>20.60513478050595</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.587580529638204</v>
+        <v>14.42467143169646</v>
       </c>
       <c r="C98">
-        <v>14.49933998004434</v>
+        <v>11.92881186229013</v>
       </c>
       <c r="D98">
-        <v>11.57996788417342</v>
+        <v>20.59091203959557</v>
       </c>
       <c r="E98">
-        <v>4.946327730080918</v>
+        <v>3.819580637363321</v>
       </c>
       <c r="F98">
-        <v>20.54499010534626</v>
+        <v>20.59830100787081</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.52887109037429</v>
+        <v>14.37773675000774</v>
       </c>
       <c r="C99">
-        <v>14.4836834625703</v>
+        <v>11.8985556846858</v>
       </c>
       <c r="D99">
-        <v>11.55066507683054</v>
+        <v>20.5840884463927</v>
       </c>
       <c r="E99">
-        <v>4.941329303515368</v>
+        <v>3.813784824208432</v>
       </c>
       <c r="F99">
-        <v>20.53751205182905</v>
+        <v>20.59144842880182</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>9.470136519000087</v>
+        <v>14.3308395370224</v>
       </c>
       <c r="C100">
-        <v>14.4680195898927</v>
+        <v>11.86828520898798</v>
       </c>
       <c r="D100">
-        <v>11.52135679049828</v>
+        <v>20.57724575883026</v>
       </c>
       <c r="E100">
-        <v>4.936325821494115</v>
+        <v>3.807981592390179</v>
       </c>
       <c r="F100">
-        <v>20.53001950264121</v>
+        <v>20.58458093928505</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>9.41138203448865</v>
+        <v>14.28398478878827</v>
       </c>
       <c r="C101">
-        <v>14.45235082680257</v>
+        <v>11.83800609545823</v>
       </c>
       <c r="D101">
-        <v>11.49204793989371</v>
+        <v>20.57038769717138</v>
       </c>
       <c r="E101">
-        <v>4.931318765197018</v>
+        <v>3.802173210400376</v>
       </c>
       <c r="F101">
-        <v>20.52251547297696</v>
+        <v>20.57770162732479</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>9.352611895771355</v>
+        <v>14.23717655040434</v>
       </c>
       <c r="C102">
-        <v>14.4366791326795</v>
+        <v>11.80772297785031</v>
       </c>
       <c r="D102">
-        <v>11.46274258627691</v>
+        <v>20.56351725877777</v>
       </c>
       <c r="E102">
-        <v>4.926309311068584</v>
+        <v>3.796361544935346</v>
       </c>
       <c r="F102">
-        <v>20.51500236036863</v>
+        <v>20.57081293880898</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>9.293829582358475</v>
+        <v>14.19041812103644</v>
       </c>
       <c r="C103">
-        <v>14.42100607501224</v>
+        <v>11.77743970597362</v>
       </c>
       <c r="D103">
-        <v>11.43344408378012</v>
+        <v>20.55663685740436</v>
       </c>
       <c r="E103">
-        <v>4.921298397977802</v>
+        <v>3.79054813143831</v>
       </c>
       <c r="F103">
-        <v>20.5074820693295</v>
+        <v>20.56391680647029</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>9.235037930538631</v>
+        <v>14.14371219981267</v>
       </c>
       <c r="C104">
-        <v>14.40533290903194</v>
+        <v>11.74715945464965</v>
       </c>
       <c r="D104">
-        <v>11.40415521016523</v>
+        <v>20.54974842294061</v>
       </c>
       <c r="E104">
-        <v>4.916286780802353</v>
+        <v>3.784734236292347</v>
       </c>
       <c r="F104">
-        <v>20.49995611129076</v>
+        <v>20.55701478342873</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>9.17623928083076</v>
+        <v>14.0970609998981</v>
       </c>
       <c r="C105">
-        <v>14.38966063739472</v>
+        <v>11.71688484356402</v>
       </c>
       <c r="D105">
-        <v>11.37487826877836</v>
+        <v>20.54285359196828</v>
       </c>
       <c r="E105">
-        <v>4.911275069484947</v>
+        <v>3.778920908356655</v>
       </c>
       <c r="F105">
-        <v>20.49242568795861</v>
+        <v>20.55010810870374</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.117435575510688</v>
+        <v>14.05046634056527</v>
       </c>
       <c r="C106">
-        <v>14.37399005774933</v>
+        <v>11.68661804789589</v>
       </c>
       <c r="D106">
-        <v>11.34561517712853</v>
+        <v>20.53595362143244</v>
       </c>
       <c r="E106">
-        <v>4.90626375731217</v>
+        <v>3.773109020896431</v>
       </c>
       <c r="F106">
-        <v>20.48489176443634</v>
+        <v>20.54319779008684</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.058628430621926</v>
+        <v>14.00392973688996</v>
       </c>
       <c r="C107">
-        <v>14.35832181977061</v>
+        <v>11.65636087960031</v>
       </c>
       <c r="D107">
-        <v>11.31636753777925</v>
+        <v>20.5290495409474</v>
       </c>
       <c r="E107">
-        <v>4.901253242704098</v>
+        <v>3.767299301404907</v>
       </c>
       <c r="F107">
-        <v>20.47735513756907</v>
+        <v>20.53628466213133</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>8.999819193466829</v>
+        <v>13.95745243913571</v>
       </c>
       <c r="C108">
-        <v>14.34265643502403</v>
+        <v>11.62611486022119</v>
       </c>
       <c r="D108">
-        <v>11.28713670321565</v>
+        <v>20.52214218819525</v>
       </c>
       <c r="E108">
-        <v>4.896243846118159</v>
+        <v>3.761492356241166</v>
       </c>
       <c r="F108">
-        <v>20.4698164241468</v>
+        <v>20.5293693681995</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>8.941008990254886</v>
+        <v>13.91103554176699</v>
       </c>
       <c r="C109">
-        <v>14.32699434983862</v>
+        <v>11.59588127525433</v>
       </c>
       <c r="D109">
-        <v>11.25792381674347</v>
+        <v>20.51523224289419</v>
       </c>
       <c r="E109">
-        <v>4.891235830709897</v>
+        <v>3.755688691674222</v>
       </c>
       <c r="F109">
-        <v>20.46227617150332</v>
+        <v>20.522452445664</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>8.882198760766794</v>
+        <v>13.86467994417743</v>
       </c>
       <c r="C110">
-        <v>14.31133590447231</v>
+        <v>11.565661211904</v>
       </c>
       <c r="D110">
-        <v>11.22872984737578</v>
+        <v>20.50832026730142</v>
       </c>
       <c r="E110">
-        <v>4.886229405930232</v>
+        <v>3.749888731404151</v>
       </c>
       <c r="F110">
-        <v>20.45473478359415</v>
+        <v>20.51553431758521</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>8.823389308310185</v>
+        <v>13.81838642867697</v>
       </c>
       <c r="C111">
-        <v>14.29568139439797</v>
+        <v>11.53545559253181</v>
       </c>
       <c r="D111">
-        <v>11.19955562066437</v>
+        <v>20.50140673024238</v>
       </c>
       <c r="E111">
-        <v>4.881224755059855</v>
+        <v>3.744092828072935</v>
       </c>
       <c r="F111">
-        <v>20.44719259996188</v>
+        <v>20.50861532805621</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>8.764581303005285</v>
+        <v>13.77215566939465</v>
       </c>
       <c r="C112">
-        <v>14.28003105395775</v>
+        <v>11.50526520241394</v>
       </c>
       <c r="D112">
-        <v>11.17040183639213</v>
+        <v>20.49449202330813</v>
       </c>
       <c r="E112">
-        <v>4.87622201890546</v>
+        <v>3.738301283803997</v>
       </c>
       <c r="F112">
-        <v>20.439649893951</v>
+        <v>20.50169575970695</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>8.705775339371737</v>
+        <v>13.72598823598886</v>
       </c>
       <c r="C113">
-        <v>14.26438506960097</v>
+        <v>11.47509071011382</v>
       </c>
       <c r="D113">
-        <v>11.141269094889</v>
+        <v>20.48757646369411</v>
       </c>
       <c r="E113">
-        <v>4.871221321433421</v>
+        <v>3.732514345674232</v>
       </c>
       <c r="F113">
-        <v>20.43210688447279</v>
+        <v>20.49477584977739</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8.646971913449606</v>
+        <v>13.67988463461798</v>
       </c>
       <c r="C114">
-        <v>14.24874359954294</v>
+        <v>11.44493269630025</v>
       </c>
       <c r="D114">
-        <v>11.11215791710143</v>
+        <v>20.48066031577041</v>
       </c>
       <c r="E114">
-        <v>4.866222760159596</v>
+        <v>3.726732235951732</v>
       </c>
       <c r="F114">
-        <v>20.42456375357676</v>
+        <v>20.48785579031307</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>8.588171460299186</v>
+        <v>13.63384530995081</v>
       </c>
       <c r="C115">
-        <v>14.23310676997609</v>
+        <v>11.41479165120561</v>
       </c>
       <c r="D115">
-        <v>11.08306875407892</v>
+        <v>20.47374379755943</v>
       </c>
       <c r="E115">
-        <v>4.861226414668747</v>
+        <v>3.720955130939477</v>
       </c>
       <c r="F115">
-        <v>20.41702065470056</v>
+        <v>20.48093574357275</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.529374358387729</v>
+        <v>13.58787065918441</v>
       </c>
       <c r="C116">
-        <v>14.21747468761674</v>
+        <v>11.38466802645143</v>
       </c>
       <c r="D116">
-        <v>11.05400200506587</v>
+        <v>20.4668270902072</v>
       </c>
       <c r="E116">
-        <v>4.85623235227439</v>
+        <v>3.715183190755973</v>
       </c>
       <c r="F116">
-        <v>20.4094777112688</v>
+        <v>20.47401584156538</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.470580929516688</v>
+        <v>13.54196104664244</v>
       </c>
       <c r="C117">
-        <v>14.20184744436266</v>
+        <v>11.35456218931532</v>
       </c>
       <c r="D117">
-        <v>11.02495801791374</v>
+        <v>20.45991034535001</v>
       </c>
       <c r="E117">
-        <v>4.851240627079823</v>
+        <v>3.709416543303319</v>
       </c>
       <c r="F117">
-        <v>20.40193503246562</v>
+        <v>20.46709619161665</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8.411791463079737</v>
+        <v>13.49611680113923</v>
       </c>
       <c r="C118">
-        <v>14.18622511459926</v>
+        <v>11.32447449473613</v>
       </c>
       <c r="D118">
-        <v>10.99593710027618</v>
+        <v>20.45299369229766</v>
       </c>
       <c r="E118">
-        <v>4.846251285044255</v>
+        <v>3.703655300010159</v>
       </c>
       <c r="F118">
-        <v>20.39439270282013</v>
+        <v>20.4601768832464</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.353006211172803</v>
+        <v>13.45033822389778</v>
       </c>
       <c r="C119">
-        <v>14.17060776648002</v>
+        <v>11.29440522759984</v>
       </c>
       <c r="D119">
-        <v>10.96693952475121</v>
+        <v>20.44607723914648</v>
       </c>
       <c r="E119">
-        <v>4.84126436535423</v>
+        <v>3.697899554234756</v>
       </c>
       <c r="F119">
-        <v>20.38685079421743</v>
+        <v>20.45325799064057</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.294225401946692</v>
+        <v>13.40462559658213</v>
       </c>
       <c r="C120">
-        <v>14.1549954528621</v>
+        <v>11.26435466144233</v>
       </c>
       <c r="D120">
-        <v>10.93796553055389</v>
+        <v>20.43916107638093</v>
       </c>
       <c r="E120">
-        <v>4.836279899998518</v>
+        <v>3.692149385166896</v>
       </c>
       <c r="F120">
-        <v>20.37930936548405</v>
+        <v>20.44633957589066</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.235449242800852</v>
+        <v>13.35897917801151</v>
       </c>
       <c r="C121">
-        <v>14.13938822117732</v>
+        <v>11.23432302550293</v>
       </c>
       <c r="D121">
-        <v>10.9090153346581</v>
+        <v>20.43224528082958</v>
       </c>
       <c r="E121">
-        <v>4.831297917951191</v>
+        <v>3.686404861664483</v>
       </c>
       <c r="F121">
-        <v>20.37176846543328</v>
+        <v>20.43942169151195</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.176677920253171</v>
+        <v>13.31339921295313</v>
       </c>
       <c r="C122">
-        <v>14.12378611009211</v>
+        <v>11.20431053354856</v>
       </c>
       <c r="D122">
-        <v>10.88008913012322</v>
+        <v>20.42532991636877</v>
       </c>
       <c r="E122">
-        <v>4.826318441778761</v>
+        <v>3.680666041796388</v>
       </c>
       <c r="F122">
-        <v>20.36422813506017</v>
+        <v>20.43250438187331</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.117911610596517</v>
+        <v>13.26788593329921</v>
       </c>
       <c r="C123">
-        <v>14.10818915334579</v>
+        <v>11.17431737566429</v>
       </c>
       <c r="D123">
-        <v>10.85118709550509</v>
+        <v>20.41841503688819</v>
       </c>
       <c r="E123">
-        <v>4.821341491644027</v>
+        <v>3.67493297760749</v>
       </c>
       <c r="F123">
-        <v>20.35668840955563</v>
+        <v>20.42558768349037</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.059150471925573</v>
+        <v>13.22243956019311</v>
       </c>
       <c r="C124">
-        <v>14.09259738015003</v>
+        <v>11.14434372742353</v>
       </c>
       <c r="D124">
-        <v>10.82230939193239</v>
+        <v>20.41150068935498</v>
       </c>
       <c r="E124">
-        <v>4.816367083853367</v>
+        <v>3.669205712097213</v>
       </c>
       <c r="F124">
-        <v>20.34914931791105</v>
+        <v>20.41867162750456</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.000394655018164</v>
+        <v>13.17706030677009</v>
       </c>
       <c r="C125">
-        <v>14.07701081615246</v>
+        <v>11.11438975008153</v>
       </c>
       <c r="D125">
-        <v>10.7934561726139</v>
+        <v>20.40458691118493</v>
       </c>
       <c r="E125">
-        <v>4.81139523251559</v>
+        <v>3.663484284060832</v>
       </c>
       <c r="F125">
-        <v>20.34161088578932</v>
+        <v>20.41175623966304</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7.941644299210328</v>
+        <v>13.13174837843657</v>
       </c>
       <c r="C126">
-        <v>14.06142948425116</v>
+        <v>11.08445559362578</v>
       </c>
       <c r="D126">
-        <v>10.76462757536379</v>
+        <v>20.39767373925076</v>
       </c>
       <c r="E126">
-        <v>4.806425949734201</v>
+        <v>3.65776872549829</v>
       </c>
       <c r="F126">
-        <v>20.33407313380038</v>
+        <v>20.40484154177357</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.882899537587323</v>
+        <v>13.08650397389791</v>
       </c>
       <c r="C127">
-        <v>14.04585340478597</v>
+        <v>11.05454139768586</v>
       </c>
       <c r="D127">
-        <v>10.73582373374868</v>
+        <v>20.39076119931438</v>
       </c>
       <c r="E127">
-        <v>4.801459245892636</v>
+        <v>3.652059064585777</v>
       </c>
       <c r="F127">
-        <v>20.32653607968673</v>
+        <v>20.39792755203532</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7.824160497345522</v>
+        <v>13.0413272871307</v>
       </c>
       <c r="C128">
-        <v>14.03028259557939</v>
+        <v>11.02464729251594</v>
       </c>
       <c r="D128">
-        <v>10.70704476874988</v>
+        <v>20.38384931928005</v>
       </c>
       <c r="E128">
-        <v>4.796495130191686</v>
+        <v>3.646355325261315</v>
       </c>
       <c r="F128">
-        <v>20.31899973830847</v>
+        <v>20.39101428627837</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7.765427300749789</v>
+        <v>12.9962185069254</v>
       </c>
       <c r="C129">
-        <v>14.01471707305848</v>
+        <v>10.99477340120557</v>
       </c>
       <c r="D129">
-        <v>10.67829079754057</v>
+        <v>20.37693811970601</v>
       </c>
       <c r="E129">
-        <v>4.791533610529034</v>
+        <v>3.640657528218265</v>
       </c>
       <c r="F129">
-        <v>20.31146412227351</v>
+        <v>20.38410175801182</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7.706700067326179</v>
+        <v>12.95117781850303</v>
       </c>
       <c r="C130">
-        <v>13.99915685160513</v>
+        <v>10.96491983905968</v>
       </c>
       <c r="D130">
-        <v>10.64956192911439</v>
+        <v>20.37002761879009</v>
       </c>
       <c r="E130">
-        <v>4.786574693794157</v>
+        <v>3.634965691552225</v>
       </c>
       <c r="F130">
-        <v>20.3039292423661</v>
+        <v>20.37718997815167</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.647978912881614</v>
+        <v>12.90620540401818</v>
       </c>
       <c r="C131">
-        <v>13.9836019444895</v>
+        <v>10.93508671651971</v>
       </c>
       <c r="D131">
-        <v>10.62085826847071</v>
+        <v>20.36311783300106</v>
       </c>
       <c r="E131">
-        <v>4.781618386093189</v>
+        <v>3.629279830764637</v>
       </c>
       <c r="F131">
-        <v>20.2963951079538</v>
+        <v>20.37027895794052</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.589263951814427</v>
+        <v>12.86130144289471</v>
       </c>
       <c r="C132">
-        <v>13.96805236389758</v>
+        <v>10.90527413854026</v>
       </c>
       <c r="D132">
-        <v>10.59217991590655</v>
+        <v>20.35620877492424</v>
       </c>
       <c r="E132">
-        <v>4.776664692668747</v>
+        <v>3.623599959733996</v>
       </c>
       <c r="F132">
-        <v>20.28886172694992</v>
+        <v>20.36336870433764</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.530555296383581</v>
+        <v>12.81646611242223</v>
       </c>
       <c r="C133">
-        <v>13.95250812111207</v>
+        <v>10.87548220647151</v>
       </c>
       <c r="D133">
-        <v>10.56352696824738</v>
+        <v>20.34930045655202</v>
       </c>
       <c r="E133">
-        <v>4.771713618217535</v>
+        <v>3.617926090138909</v>
       </c>
       <c r="F133">
-        <v>20.28132910638574</v>
+        <v>20.35645922631113</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.471853057939891</v>
+        <v>12.77169958796029</v>
       </c>
       <c r="C134">
-        <v>13.93696922683127</v>
+        <v>10.84571101775047</v>
       </c>
       <c r="D134">
-        <v>10.53489951931808</v>
+        <v>20.34239288757194</v>
       </c>
       <c r="E134">
-        <v>4.766765166907355</v>
+        <v>3.612258232488249</v>
       </c>
       <c r="F134">
-        <v>20.27379725211543</v>
+        <v>20.34955052888123</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.413157347310062</v>
+        <v>12.72700204283954</v>
       </c>
       <c r="C135">
-        <v>13.92143569099041</v>
+        <v>10.81596066752724</v>
       </c>
       <c r="D135">
-        <v>10.50629766017378</v>
+        <v>20.33548607682497</v>
       </c>
       <c r="E135">
-        <v>4.761819342481105</v>
+        <v>3.606596395601875</v>
       </c>
       <c r="F135">
-        <v>20.26626616925405</v>
+        <v>20.34264261810463</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.354468275079244</v>
+        <v>12.68237364980369</v>
       </c>
       <c r="C136">
-        <v>13.90590752312423</v>
+        <v>10.78623124761291</v>
       </c>
       <c r="D136">
-        <v>10.4777214797211</v>
+        <v>20.32858003168018</v>
       </c>
       <c r="E136">
-        <v>4.756876148371028</v>
+        <v>3.600940587271274</v>
       </c>
       <c r="F136">
-        <v>20.25873586219533</v>
+        <v>20.33573549840715</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.295785952222619</v>
+        <v>12.63781457943698</v>
       </c>
       <c r="C137">
-        <v>13.89038473220206</v>
+        <v>10.75652284831898</v>
       </c>
       <c r="D137">
-        <v>10.44917106455945</v>
+        <v>20.32167475926529</v>
       </c>
       <c r="E137">
-        <v>4.751935587648926</v>
+        <v>3.595290814172517</v>
       </c>
       <c r="F137">
-        <v>20.25120633472515</v>
+        <v>20.32882917354992</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.237110490243674</v>
+        <v>12.5933250022411</v>
       </c>
       <c r="C138">
-        <v>13.87486732682555</v>
+        <v>10.72683555733337</v>
       </c>
       <c r="D138">
-        <v>10.42064649977987</v>
+        <v>20.3147702650073</v>
       </c>
       <c r="E138">
-        <v>4.746997663187996</v>
+        <v>3.58964708209237</v>
       </c>
       <c r="F138">
-        <v>20.24367759023643</v>
+        <v>20.32192364695826</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.17844200159399</v>
+        <v>12.54890508789423</v>
       </c>
       <c r="C139">
-        <v>13.85935531526744</v>
+        <v>10.69716946109988</v>
       </c>
       <c r="D139">
-        <v>10.39214786864744</v>
+        <v>20.30786655457536</v>
       </c>
       <c r="E139">
-        <v>4.742062377576015</v>
+        <v>3.584009396100776</v>
       </c>
       <c r="F139">
-        <v>20.2361496315191</v>
+        <v>20.31501892154804</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.119780599882613</v>
+        <v>12.50455500434062</v>
       </c>
       <c r="C140">
-        <v>13.84384870551629</v>
+        <v>10.66752464433413</v>
       </c>
       <c r="D140">
-        <v>10.36367525333211</v>
+        <v>20.30096363238031</v>
       </c>
       <c r="E140">
-        <v>4.737129733231479</v>
+        <v>3.57837776053117</v>
       </c>
       <c r="F140">
-        <v>20.22862246125714</v>
+        <v>20.30811499995945</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.061126400008506</v>
+        <v>12.46027492049797</v>
       </c>
       <c r="C141">
-        <v>13.82834750531919</v>
+        <v>10.63790119067047</v>
       </c>
       <c r="D141">
-        <v>10.33522873473822</v>
+        <v>20.29406150244837</v>
       </c>
       <c r="E141">
-        <v>4.732199732393203</v>
+        <v>3.572752179231947</v>
       </c>
       <c r="F141">
-        <v>20.2210960817831</v>
+        <v>20.30121188439153</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.002479518589005</v>
+        <v>12.41606500304674</v>
       </c>
       <c r="C142">
-        <v>13.81285172223426</v>
+        <v>10.60829918270881</v>
       </c>
       <c r="D142">
-        <v>10.3068083929604</v>
+        <v>20.28716016838879</v>
       </c>
       <c r="E142">
-        <v>4.727272377149768</v>
+        <v>3.567132655436054</v>
       </c>
       <c r="F142">
-        <v>20.21357049495816</v>
+        <v>20.29430957710097</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.943840073939026</v>
+        <v>12.37192541942613</v>
       </c>
       <c r="C143">
-        <v>13.79736136373477</v>
+        <v>10.57871870215845</v>
       </c>
       <c r="D143">
-        <v>10.27841430717779</v>
+        <v>20.28025963319782</v>
       </c>
       <c r="E143">
-        <v>4.722347669494382</v>
+        <v>3.561519192008517</v>
       </c>
       <c r="F143">
-        <v>20.20604570284913</v>
+        <v>20.28740807971549</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6.885208186440226</v>
+        <v>12.32785633612451</v>
       </c>
       <c r="C144">
-        <v>13.78187643695687</v>
+        <v>10.54915983013941</v>
       </c>
       <c r="D144">
-        <v>10.25004655606233</v>
+        <v>20.27335989964758</v>
       </c>
       <c r="E144">
-        <v>4.717425611293314</v>
+        <v>3.555911791336448</v>
       </c>
       <c r="F144">
-        <v>20.19852170681019</v>
+        <v>20.280507394021</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6.826583978648917</v>
+        <v>12.28385791922979</v>
       </c>
       <c r="C145">
-        <v>13.76639694918765</v>
+        <v>10.5196226470092</v>
       </c>
       <c r="D145">
-        <v>10.22170521752855</v>
+        <v>20.2664609701519</v>
       </c>
       <c r="E145">
-        <v>4.712506204328696</v>
+        <v>3.55031045548874</v>
       </c>
       <c r="F145">
-        <v>20.19099850843579</v>
+        <v>20.2736075214448</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6.767967575449068</v>
+        <v>12.23993033470913</v>
       </c>
       <c r="C146">
-        <v>13.7509229074675</v>
+        <v>10.49010723282983</v>
       </c>
       <c r="D146">
-        <v>10.19339036917442</v>
+        <v>20.25956284688665</v>
       </c>
       <c r="E146">
-        <v>4.70758945037379</v>
+        <v>3.544715186199961</v>
       </c>
       <c r="F146">
-        <v>20.18347610899468</v>
+        <v>20.26670846321579</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6.709359104344616</v>
+        <v>12.19607374818104</v>
       </c>
       <c r="C147">
-        <v>13.73545431869701</v>
+        <v>10.46061366706336</v>
       </c>
       <c r="D147">
-        <v>10.16510208802263</v>
+        <v>20.25266553177891</v>
       </c>
       <c r="E147">
-        <v>4.702675351002376</v>
+        <v>3.539125984927494</v>
       </c>
       <c r="F147">
-        <v>20.17595450958077</v>
+        <v>20.25981022051722</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.650758695579384</v>
+        <v>12.15228832514277</v>
       </c>
       <c r="C148">
-        <v>13.71999118990054</v>
+        <v>10.43114202898273</v>
       </c>
       <c r="D148">
-        <v>10.13684045085634</v>
+        <v>20.24576902665702</v>
       </c>
       <c r="E148">
-        <v>4.697763907877325</v>
+        <v>3.533542852899614</v>
       </c>
       <c r="F148">
-        <v>20.16843371127313</v>
+        <v>20.25291279433071</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.592166482064301</v>
+        <v>12.10857423080829</v>
       </c>
       <c r="C149">
-        <v>13.70453352778205</v>
+        <v>10.40169239749826</v>
       </c>
       <c r="D149">
-        <v>10.10860553409564</v>
+        <v>20.23887333303629</v>
       </c>
       <c r="E149">
-        <v>4.692855122544125</v>
+        <v>3.527965791109324</v>
       </c>
       <c r="F149">
-        <v>20.16091371498874</v>
+        <v>20.24601618556394</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.533582600083618</v>
+        <v>12.06493163037417</v>
       </c>
       <c r="C150">
-        <v>13.68908133918219</v>
+        <v>10.37226485139237</v>
       </c>
       <c r="D150">
-        <v>10.08039741397114</v>
+        <v>20.23197845243927</v>
       </c>
       <c r="E150">
-        <v>4.687948996472028</v>
+        <v>3.522394800375586</v>
       </c>
       <c r="F150">
-        <v>20.1533945216086</v>
+        <v>20.23912039505414</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6.475007188864031</v>
+        <v>12.02136068884838</v>
       </c>
       <c r="C151">
-        <v>13.67363463082095</v>
+        <v>10.34285946927354</v>
       </c>
       <c r="D151">
-        <v>10.05221616651641</v>
+        <v>20.2250843861373</v>
       </c>
       <c r="E151">
-        <v>4.68304553116524</v>
+        <v>3.516829881299563</v>
       </c>
       <c r="F151">
-        <v>20.14587613192093</v>
+        <v>20.23222542355945</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6.416440390996567</v>
+        <v>11.97786157102814</v>
       </c>
       <c r="C152">
-        <v>13.65819340935658</v>
+        <v>10.31347632969821</v>
       </c>
       <c r="D152">
-        <v>10.02406186763264</v>
+        <v>20.21819113532074</v>
       </c>
       <c r="E152">
-        <v>4.678144728020571</v>
+        <v>3.511271034411017</v>
       </c>
       <c r="F152">
-        <v>20.13835854667606</v>
+        <v>20.22533127176779</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6.357882352758798</v>
+        <v>11.93443444176482</v>
       </c>
       <c r="C153">
-        <v>13.64275768144977</v>
+        <v>10.28411551116248</v>
       </c>
       <c r="D153">
-        <v>9.995934593128736</v>
+        <v>20.21129870107334</v>
       </c>
       <c r="E153">
-        <v>4.673246588451548</v>
+        <v>3.505718260037814</v>
       </c>
       <c r="F153">
-        <v>20.13084176658609</v>
+        <v>20.21843794034912</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6.299333223829187</v>
+        <v>11.89107946559107</v>
       </c>
       <c r="C154">
-        <v>13.62732745372057</v>
+        <v>10.25477709218264</v>
       </c>
       <c r="D154">
-        <v>9.967834418729637</v>
+        <v>20.20440708435765</v>
       </c>
       <c r="E154">
-        <v>4.668351113830948</v>
+        <v>3.500171558374653</v>
       </c>
       <c r="F154">
-        <v>20.12332579227294</v>
+        <v>20.21154542990727</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6.240793157886361</v>
+        <v>11.84779680708786</v>
       </c>
       <c r="C155">
-        <v>13.61190273277845</v>
+        <v>10.22546115129166</v>
       </c>
       <c r="D155">
-        <v>9.939761420140639</v>
+        <v>20.19751628607358</v>
       </c>
       <c r="E155">
-        <v>4.663458305506126</v>
+        <v>3.49463092964706</v>
       </c>
       <c r="F155">
-        <v>20.11581062438905</v>
+        <v>20.20465374099622</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6.182262312553791</v>
+        <v>11.80458663066606</v>
       </c>
       <c r="C156">
-        <v>13.59648352521282</v>
+        <v>10.19616776709319</v>
       </c>
       <c r="D156">
-        <v>9.911715673019962</v>
+        <v>20.19062630704297</v>
       </c>
       <c r="E156">
-        <v>4.658568164815315</v>
+        <v>3.489096373775406</v>
       </c>
       <c r="F156">
-        <v>20.10829626348367</v>
+        <v>20.19776287416261</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6.123740849627116</v>
+        <v>11.76144910064515</v>
       </c>
       <c r="C157">
-        <v>13.58106983759832</v>
+        <v>10.16689701827626</v>
       </c>
       <c r="D157">
-        <v>9.883697253057649</v>
+        <v>20.18373714802938</v>
       </c>
       <c r="E157">
-        <v>4.653680693069991</v>
+        <v>3.483567890735783</v>
       </c>
       <c r="F157">
-        <v>20.10078271011707</v>
+        <v>20.19087282987678</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6.065228935175555</v>
+        <v>11.71838438126858</v>
       </c>
       <c r="C158">
-        <v>13.56566167652312</v>
+        <v>10.13764898361522</v>
       </c>
       <c r="D158">
-        <v>9.855706235919778</v>
+        <v>20.17684880973682</v>
       </c>
       <c r="E158">
-        <v>4.648795891580819</v>
+        <v>3.478045480442095</v>
       </c>
       <c r="F158">
-        <v>20.09326996481211</v>
+        <v>20.18398360861082</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6.006726739947203</v>
+        <v>11.67539263669508</v>
       </c>
       <c r="C159">
-        <v>13.55025904852584</v>
+        <v>10.10842374205274</v>
       </c>
       <c r="D159">
-        <v>9.827742697365068</v>
+        <v>20.16996129284014</v>
       </c>
       <c r="E159">
-        <v>4.643913761641736</v>
+        <v>3.472529142576719</v>
       </c>
       <c r="F159">
-        <v>20.08575802805239</v>
+        <v>20.17709521079384</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5.948234439289212</v>
+        <v>11.63247403100641</v>
       </c>
       <c r="C160">
-        <v>13.53486196017923</v>
+        <v>10.07922137271212</v>
       </c>
       <c r="D160">
-        <v>9.799806713209406</v>
+        <v>20.16307459794413</v>
       </c>
       <c r="E160">
-        <v>4.639034304527374</v>
+        <v>3.467018876902408</v>
       </c>
       <c r="F160">
-        <v>20.07824690031511</v>
+        <v>20.17020763683546</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5.88975221346056</v>
+        <v>11.58962872818841</v>
       </c>
       <c r="C161">
-        <v>13.51947041803545</v>
+        <v>10.05004195476872</v>
       </c>
       <c r="D161">
-        <v>9.771898359254537</v>
+        <v>20.15618872564573</v>
       </c>
       <c r="E161">
-        <v>4.634157521519569</v>
+        <v>3.461514683068804</v>
       </c>
       <c r="F161">
-        <v>20.07073658205295</v>
+        <v>20.16332088712863</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5.831280247996484</v>
+        <v>11.54685689217376</v>
       </c>
       <c r="C162">
-        <v>13.50408442863167</v>
+        <v>10.02088556774547</v>
       </c>
       <c r="D162">
-        <v>9.744017711523227</v>
+        <v>20.14930367648407</v>
       </c>
       <c r="E162">
-        <v>4.629283413872571</v>
+        <v>3.456016560637941</v>
       </c>
       <c r="F162">
-        <v>20.06322707370522</v>
+        <v>20.15643496204995</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5.772818733558177</v>
+        <v>11.50415868679611</v>
       </c>
       <c r="C163">
-        <v>13.48870399851963</v>
+        <v>9.991752291342312</v>
       </c>
       <c r="D163">
-        <v>9.716164846084464</v>
+        <v>20.14241945097747</v>
       </c>
       <c r="E163">
-        <v>4.62441198284427</v>
+        <v>3.450524509160418</v>
       </c>
       <c r="F163">
-        <v>20.05571837569668</v>
+        <v>20.14954986196119</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5.714367866502867</v>
+        <v>11.46153427579665</v>
       </c>
       <c r="C164">
-        <v>13.47332913423943</v>
+        <v>9.9626422053203</v>
       </c>
       <c r="D164">
-        <v>9.688339839012846</v>
+        <v>20.13553604961456</v>
       </c>
       <c r="E164">
-        <v>4.619543229682819</v>
+        <v>3.445038528123665</v>
       </c>
       <c r="F164">
-        <v>20.04821048844178</v>
+        <v>20.14266558721312</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5.655927848950564</v>
+        <v>11.418983822853</v>
       </c>
       <c r="C165">
-        <v>13.45795984233521</v>
+        <v>9.93355538987373</v>
       </c>
       <c r="D165">
-        <v>9.660542766661456</v>
+        <v>20.12865347285558</v>
       </c>
       <c r="E165">
-        <v>4.614677155625039</v>
+        <v>3.439558616975225</v>
       </c>
       <c r="F165">
-        <v>20.04070341234839</v>
+        <v>20.13578213814964</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5.597498888895576</v>
+        <v>11.37650749151662</v>
       </c>
       <c r="C166">
-        <v>13.44259612935196</v>
+        <v>9.904491925359057</v>
       </c>
       <c r="D166">
-        <v>9.632773705416202</v>
+        <v>20.12177172114242</v>
       </c>
       <c r="E166">
-        <v>4.609813761906169</v>
+        <v>3.434084775133211</v>
       </c>
       <c r="F166">
-        <v>20.03319714780583</v>
+        <v>20.12889951509563</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5.539081200907574</v>
+        <v>11.33410544527056</v>
       </c>
       <c r="C167">
-        <v>13.42723800183866</v>
+        <v>9.875451892284172</v>
       </c>
       <c r="D167">
-        <v>9.605032731743</v>
+        <v>20.11489079489622</v>
       </c>
       <c r="E167">
-        <v>4.604953049754518</v>
+        <v>3.428617001961889</v>
       </c>
       <c r="F167">
-        <v>20.0256916952073</v>
+        <v>20.12201771837809</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5.480675005754168</v>
+        <v>11.29177784748431</v>
       </c>
       <c r="C168">
-        <v>13.41188546634757</v>
+        <v>9.84643537154737</v>
       </c>
       <c r="D168">
-        <v>9.577319922340092</v>
+        <v>20.10801069452258</v>
       </c>
       <c r="E168">
-        <v>4.600095020394067</v>
+        <v>3.423155296814019</v>
       </c>
       <c r="F168">
-        <v>20.01818705492958</v>
+        <v>20.11513674830558</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5.422280531149747</v>
+        <v>11.24952486142703</v>
       </c>
       <c r="C169">
-        <v>13.39653852943319</v>
+        <v>9.817442444245161</v>
       </c>
       <c r="D169">
-        <v>9.549635353979149</v>
+        <v>20.10113142041013</v>
       </c>
       <c r="E169">
-        <v>4.595239675044748</v>
+        <v>3.417699659010863</v>
       </c>
       <c r="F169">
-        <v>20.01068322734545</v>
+        <v>20.10825660518581</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5.363898012061242</v>
+        <v>11.20734665026179</v>
       </c>
       <c r="C170">
-        <v>13.38119719765865</v>
+        <v>9.788473191720708</v>
       </c>
       <c r="D170">
-        <v>9.521979103573885</v>
+        <v>20.09425297293835</v>
       </c>
       <c r="E170">
-        <v>4.590387014922247</v>
+        <v>3.412250087819298</v>
       </c>
       <c r="F170">
-        <v>20.00318021282344</v>
+        <v>20.10137728931741</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5.305527690494172</v>
+        <v>11.16524337703961</v>
       </c>
       <c r="C171">
-        <v>13.3658614775908</v>
+        <v>9.759527695640227</v>
       </c>
       <c r="D171">
-        <v>9.494351248214743</v>
+        <v>20.08737535246872</v>
       </c>
       <c r="E171">
-        <v>4.585537041240562</v>
+        <v>3.406806582510526</v>
       </c>
       <c r="F171">
-        <v>19.99567801172297</v>
+        <v>20.09449880099336</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5.247169816607349</v>
+        <v>11.1232152046976</v>
       </c>
       <c r="C172">
-        <v>13.35053137579887</v>
+        <v>9.730606037926743</v>
       </c>
       <c r="D172">
-        <v>9.466751865119546</v>
+        <v>20.08049855935809</v>
       </c>
       <c r="E172">
-        <v>4.580689755208303</v>
+        <v>3.401369142316622</v>
       </c>
       <c r="F172">
-        <v>19.98817662440153</v>
+        <v>20.08762114050213</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5.1888246483175</v>
+        <v>11.08126229604724</v>
       </c>
       <c r="C173">
-        <v>13.3352068988632</v>
+        <v>9.701708300795575</v>
       </c>
       <c r="D173">
-        <v>9.439181031671213</v>
+        <v>20.07362259394831</v>
       </c>
       <c r="E173">
-        <v>4.575845158032505</v>
+        <v>3.395937766435512</v>
       </c>
       <c r="F173">
-        <v>19.98067605121155</v>
+        <v>20.08074430812842</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5.130492451907586</v>
+        <v>11.03938481378052</v>
       </c>
       <c r="C174">
-        <v>13.31988805336466</v>
+        <v>9.672834566769458</v>
       </c>
       <c r="D174">
-        <v>9.411638825418672</v>
+        <v>20.06674745657492</v>
       </c>
       <c r="E174">
-        <v>4.571003250918015</v>
+        <v>3.390512454057539</v>
       </c>
       <c r="F174">
-        <v>19.97317629250225</v>
+        <v>20.0738683041532</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5.072173502879596</v>
+        <v>10.99758292045256</v>
       </c>
       <c r="C175">
-        <v>13.30457484589337</v>
+        <v>9.643984918652023</v>
       </c>
       <c r="D175">
-        <v>9.384125324053024</v>
+        <v>20.0598731475645</v>
       </c>
       <c r="E175">
-        <v>4.566164035064659</v>
+        <v>3.385093204341958</v>
       </c>
       <c r="F175">
-        <v>19.9656773486197</v>
+        <v>20.06699312885367</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5.013868085331657</v>
+        <v>10.95585677848075</v>
       </c>
       <c r="C176">
-        <v>13.28926728304521</v>
+        <v>9.615159439566566</v>
       </c>
       <c r="D176">
-        <v>9.356640605451233</v>
+        <v>20.05299966723592</v>
       </c>
       <c r="E176">
-        <v>4.56132751167215</v>
+        <v>3.379680016428317</v>
       </c>
       <c r="F176">
-        <v>19.95817921990726</v>
+        <v>20.06011878250589</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>4.955576493350175</v>
+        <v>10.91420655014271</v>
       </c>
       <c r="C177">
-        <v>13.27396537142212</v>
+        <v>9.58635821295306</v>
       </c>
       <c r="D177">
-        <v>9.329184747656981</v>
+        <v>20.04612701590221</v>
       </c>
       <c r="E177">
-        <v>4.556493681936622</v>
+        <v>3.374272889438517</v>
       </c>
       <c r="F177">
-        <v>19.95068190670699</v>
+        <v>20.05324526538084</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4.897299031035658</v>
+        <v>10.87263239755934</v>
       </c>
       <c r="C178">
-        <v>13.2586691176333</v>
+        <v>9.557581322528794</v>
       </c>
       <c r="D178">
-        <v>9.30175782885477</v>
+        <v>20.03925519387016</v>
       </c>
       <c r="E178">
-        <v>4.551662547052095</v>
+        <v>3.36887182247391</v>
       </c>
       <c r="F178">
-        <v>19.94318540935672</v>
+        <v>20.04637257774947</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>4.839036012552533</v>
+        <v>10.83113448270165</v>
       </c>
       <c r="C179">
-        <v>13.24337852829535</v>
+        <v>9.528828852363068</v>
       </c>
       <c r="D179">
-        <v>9.274359927430936</v>
+        <v>20.0323842014416</v>
       </c>
       <c r="E179">
-        <v>4.546834108210776</v>
+        <v>3.363476814619882</v>
       </c>
       <c r="F179">
-        <v>19.9356897281947</v>
+        <v>20.03950071987923</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>4.780787763867711</v>
+        <v>10.78971296737407</v>
       </c>
       <c r="C180">
-        <v>13.2280936100321</v>
+        <v>9.500100886836353</v>
       </c>
       <c r="D180">
-        <v>9.246991121934492</v>
+        <v>20.02551403891228</v>
       </c>
       <c r="E180">
-        <v>4.542008366602801</v>
+        <v>3.358087864944675</v>
       </c>
       <c r="F180">
-        <v>19.92819486355618</v>
+        <v>20.03262969203576</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>4.722554621590391</v>
+        <v>10.74836801321432</v>
       </c>
       <c r="C181">
-        <v>13.21281436947493</v>
+        <v>9.471397510626819</v>
       </c>
       <c r="D181">
-        <v>9.219651491067701</v>
+        <v>20.01864470657628</v>
       </c>
       <c r="E181">
-        <v>4.537185323416554</v>
+        <v>3.352704972497781</v>
       </c>
       <c r="F181">
-        <v>19.92070081577468</v>
+        <v>20.02575949448331</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>4.664336934703543</v>
+        <v>10.7070997816846</v>
       </c>
       <c r="C182">
-        <v>13.19754081326265</v>
+        <v>9.442718808763868</v>
       </c>
       <c r="D182">
-        <v>9.192341113729094</v>
+        <v>20.01177620472479</v>
       </c>
       <c r="E182">
-        <v>4.532364979838593</v>
+        <v>3.347328136317354</v>
       </c>
       <c r="F182">
-        <v>19.91320758518316</v>
+        <v>20.01889012748426</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>4.606135065210577</v>
+        <v>10.66590843406482</v>
       </c>
       <c r="C183">
-        <v>13.18227294804251</v>
+        <v>9.414064866595576</v>
       </c>
       <c r="D183">
-        <v>9.165060068983106</v>
+        <v>20.00490853363762</v>
       </c>
       <c r="E183">
-        <v>4.527547337053901</v>
+        <v>3.341957355423553</v>
       </c>
       <c r="F183">
-        <v>19.90571517211244</v>
+        <v>20.01202159129981</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>4.547949387482565</v>
+        <v>10.62479413144807</v>
       </c>
       <c r="C184">
-        <v>13.16701078046856</v>
+        <v>9.385435769791128</v>
       </c>
       <c r="D184">
-        <v>9.137808436062762</v>
+        <v>19.9980416936011</v>
       </c>
       <c r="E184">
-        <v>4.522732396246028</v>
+        <v>3.336592628820221</v>
       </c>
       <c r="F184">
-        <v>19.89822357689284</v>
+        <v>20.00515388618992</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>4.489780290762599</v>
+        <v>10.58375703472996</v>
       </c>
       <c r="C185">
-        <v>13.15175431720341</v>
+        <v>9.356831604363082</v>
       </c>
       <c r="D185">
-        <v>9.110586294386225</v>
+        <v>19.9911756848978</v>
       </c>
       <c r="E185">
-        <v>4.517920158596441</v>
+        <v>3.331233955500991</v>
       </c>
       <c r="F185">
-        <v>19.89073279985352</v>
+        <v>19.99828701241371</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>4.431628178230651</v>
+        <v>10.54279730460683</v>
       </c>
       <c r="C186">
-        <v>13.13650356491759</v>
+        <v>9.328252456654667</v>
       </c>
       <c r="D186">
-        <v>9.083393723544267</v>
+        <v>19.98431050780234</v>
       </c>
       <c r="E186">
-        <v>4.513110625285688</v>
+        <v>3.325881334441099</v>
       </c>
       <c r="F186">
-        <v>19.88324284132289</v>
+        <v>19.99142097022954</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>4.373493468218453</v>
+        <v>10.50191510156385</v>
       </c>
       <c r="C187">
-        <v>13.12125853028902</v>
+        <v>9.299698413344698</v>
       </c>
       <c r="D187">
-        <v>9.056230803303947</v>
+        <v>19.97744616258786</v>
       </c>
       <c r="E187">
-        <v>4.50830379749249</v>
+        <v>3.320534764603692</v>
       </c>
       <c r="F187">
-        <v>19.87575370162866</v>
+        <v>19.98455575989404</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>4.315376596235526</v>
+        <v>10.46111058587066</v>
       </c>
       <c r="C188">
-        <v>13.10601922000419</v>
+        <v>9.271169561455689</v>
       </c>
       <c r="D188">
-        <v>9.029097613613631</v>
+        <v>19.97058264953114</v>
       </c>
       <c r="E188">
-        <v>4.50349967639403</v>
+        <v>3.315194244939121</v>
       </c>
       <c r="F188">
-        <v>19.86826538109784</v>
+        <v>19.97769138166399</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>4.257278013308955</v>
+        <v>10.42038391757365</v>
       </c>
       <c r="C189">
-        <v>13.09078564075747</v>
+        <v>9.242665988348742</v>
       </c>
       <c r="D189">
-        <v>9.001994234596662</v>
+        <v>19.96371996890392</v>
       </c>
       <c r="E189">
-        <v>4.498698263166307</v>
+        <v>3.309859774382663</v>
       </c>
       <c r="F189">
-        <v>19.86077788005722</v>
+        <v>19.970827835796</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>4.199198189221789</v>
+        <v>10.37973525648546</v>
       </c>
       <c r="C190">
-        <v>13.07555779925139</v>
+        <v>9.214187781728695</v>
       </c>
       <c r="D190">
-        <v>8.974920746555595</v>
+        <v>19.9568581209709</v>
       </c>
       <c r="E190">
-        <v>4.493899558983653</v>
+        <v>3.304531351858115</v>
       </c>
       <c r="F190">
-        <v>19.85329119883263</v>
+        <v>19.96396512254553</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>4.14113761254847</v>
+        <v>10.33916476218581</v>
       </c>
       <c r="C191">
-        <v>13.06033570219671</v>
+        <v>9.185735029649948</v>
       </c>
       <c r="D191">
-        <v>8.947877229974889</v>
+        <v>19.94999710600252</v>
       </c>
       <c r="E191">
-        <v>4.489103565019173</v>
+        <v>3.299208976276186</v>
       </c>
       <c r="F191">
-        <v>19.84580533774993</v>
+        <v>19.95710324216621</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>4.083096790515635</v>
+        <v>10.29867259400975</v>
       </c>
       <c r="C192">
-        <v>13.04511935631247</v>
+        <v>9.157307820508738</v>
       </c>
       <c r="D192">
-        <v>8.920863765512138</v>
+        <v>19.94313692426569</v>
       </c>
       <c r="E192">
-        <v>4.484310282444562</v>
+        <v>3.293892646534905</v>
       </c>
       <c r="F192">
-        <v>19.83832029713431</v>
+        <v>19.9502421949136</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>4.025076253294298</v>
+        <v>10.2582589110303</v>
       </c>
       <c r="C193">
-        <v>13.02990876832602</v>
+        <v>9.128906243053128</v>
       </c>
       <c r="D193">
-        <v>8.893880434007132</v>
+        <v>19.93627757602305</v>
       </c>
       <c r="E193">
-        <v>4.479519712430185</v>
+        <v>3.288582361520691</v>
       </c>
       <c r="F193">
-        <v>19.83083607731047</v>
+        <v>19.94338198104242</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.967076550898021</v>
+        <v>10.21792387206768</v>
       </c>
       <c r="C194">
-        <v>13.01470394497299</v>
+        <v>9.100530386384577</v>
       </c>
       <c r="D194">
-        <v>8.866927316480201</v>
+        <v>19.92941906153892</v>
       </c>
       <c r="E194">
-        <v>4.474731856145111</v>
+        <v>3.283278120107482</v>
       </c>
       <c r="F194">
-        <v>19.82335267860341</v>
+        <v>19.93652260080481</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.909098257361301</v>
+        <v>10.17766763567827</v>
       </c>
       <c r="C195">
-        <v>12.99950489299744</v>
+        <v>9.072180339950581</v>
       </c>
       <c r="D195">
-        <v>8.840004494124024</v>
+        <v>19.92256138107585</v>
       </c>
       <c r="E195">
-        <v>4.469946714757056</v>
+        <v>3.277979921157361</v>
       </c>
       <c r="F195">
-        <v>19.81587010133795</v>
+        <v>19.92966405445483</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3.851141972344324</v>
+        <v>10.13749036014063</v>
       </c>
       <c r="C196">
-        <v>12.98431161915179</v>
+        <v>9.04385619355763</v>
       </c>
       <c r="D196">
-        <v>8.813112048315219</v>
+        <v>19.91570453489513</v>
       </c>
       <c r="E196">
-        <v>4.465164289432522</v>
+        <v>3.272687763521442</v>
       </c>
       <c r="F196">
-        <v>19.80838834583747</v>
+        <v>19.92280634224582</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.793208319180519</v>
+        <v>10.09739220343388</v>
       </c>
       <c r="C197">
-        <v>12.96912413019658</v>
+        <v>9.015558037367269</v>
       </c>
       <c r="D197">
-        <v>8.786250060607747</v>
+        <v>19.90884852325723</v>
       </c>
       <c r="E197">
-        <v>4.46038458133664</v>
+        <v>3.267401646038033</v>
       </c>
       <c r="F197">
-        <v>19.80090741242649</v>
+        <v>19.91594946443049</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.735297951159866</v>
+        <v>10.05737332326825</v>
       </c>
       <c r="C198">
-        <v>12.95394243290123</v>
+        <v>8.987285961894738</v>
       </c>
       <c r="D198">
-        <v>8.75941861273048</v>
+        <v>19.90199334642224</v>
       </c>
       <c r="E198">
-        <v>4.455607591633213</v>
+        <v>3.262121567534875</v>
       </c>
       <c r="F198">
-        <v>19.79342730142948</v>
+        <v>19.90909342126099</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3.677411549102455</v>
+        <v>10.01743387704977</v>
       </c>
       <c r="C199">
-        <v>12.93876653404359</v>
+        <v>8.959040058017107</v>
       </c>
       <c r="D199">
-        <v>8.732617786593485</v>
+        <v>19.89513900464941</v>
       </c>
       <c r="E199">
-        <v>4.45083332148497</v>
+        <v>3.256847526828379</v>
       </c>
       <c r="F199">
-        <v>19.78594801317066</v>
+        <v>19.90223821298999</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3.619549824063046</v>
+        <v>9.977574021868843</v>
       </c>
       <c r="C200">
-        <v>12.92359644040963</v>
+        <v>8.930820416970468</v>
       </c>
       <c r="D200">
-        <v>8.705847664283416</v>
+        <v>19.88828549819673</v>
       </c>
       <c r="E200">
-        <v>4.446061772053401</v>
+        <v>3.2515795227228</v>
       </c>
       <c r="F200">
-        <v>19.77846954797263</v>
+        <v>19.89538383986972</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3.561713522808469</v>
+        <v>9.937793914500862</v>
       </c>
       <c r="C201">
-        <v>12.90843215879364</v>
+        <v>8.902627130350895</v>
       </c>
       <c r="D201">
-        <v>8.679108328062661</v>
+        <v>19.88143282732274</v>
       </c>
       <c r="E201">
-        <v>4.441292944498362</v>
+        <v>3.246317554012091</v>
       </c>
       <c r="F201">
-        <v>19.77099190616008</v>
+        <v>19.88853030215207</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3.503903422933907</v>
+        <v>9.898093711407935</v>
       </c>
       <c r="C202">
-        <v>12.89327369599916</v>
+        <v>8.87446029011906</v>
       </c>
       <c r="D202">
-        <v>8.652399860372538</v>
+        <v>19.8745809922854</v>
       </c>
       <c r="E202">
-        <v>4.436526839978674</v>
+        <v>3.241061619478803</v>
       </c>
       <c r="F202">
-        <v>19.76351508805707</v>
+        <v>19.88167760008908</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>3.446120341435512</v>
+        <v>9.858473568717971</v>
       </c>
       <c r="C203">
-        <v>12.8781210588381</v>
+        <v>8.846319988598944</v>
       </c>
       <c r="D203">
-        <v>8.625722343829983</v>
+        <v>19.86772999334069</v>
       </c>
       <c r="E203">
-        <v>4.431763459652142</v>
+        <v>3.235811717894264</v>
       </c>
       <c r="F203">
-        <v>19.75603909398715</v>
+        <v>19.87482573393265</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3.38836513479755</v>
+        <v>9.818933642206774</v>
       </c>
       <c r="C204">
-        <v>12.86297425413011</v>
+        <v>8.818206318478932</v>
       </c>
       <c r="D204">
-        <v>8.599075861226892</v>
+        <v>19.86087983074572</v>
       </c>
       <c r="E204">
-        <v>4.427002804675295</v>
+        <v>3.23056784801919</v>
       </c>
       <c r="F204">
-        <v>19.74856392427364</v>
+        <v>19.86797470393451</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>3.330638697940334</v>
+        <v>9.77947408731675</v>
       </c>
       <c r="C205">
-        <v>12.84783328870387</v>
+        <v>8.790119372815795</v>
       </c>
       <c r="D205">
-        <v>8.572460495532654</v>
+        <v>19.85403050475704</v>
       </c>
       <c r="E205">
-        <v>4.422244876202751</v>
+        <v>3.225330008603244</v>
       </c>
       <c r="F205">
-        <v>19.74108957924072</v>
+        <v>19.86112451034633</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>3.272941976465618</v>
+        <v>9.74009505913048</v>
       </c>
       <c r="C206">
-        <v>12.83269816939691</v>
+        <v>8.76205924503299</v>
       </c>
       <c r="D206">
-        <v>8.545876329890435</v>
+        <v>19.84718201563025</v>
       </c>
       <c r="E206">
-        <v>4.41748967538854</v>
+        <v>3.220098198385327</v>
       </c>
       <c r="F206">
-        <v>19.73361605921228</v>
+        <v>19.85427515341991</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>3.215275957160671</v>
+        <v>9.700796712363836</v>
       </c>
       <c r="C207">
-        <v>12.8175689030552</v>
+        <v>8.734026028922555</v>
       </c>
       <c r="D207">
-        <v>8.519323447617301</v>
+        <v>19.84033436362054</v>
       </c>
       <c r="E207">
-        <v>4.412737203385372</v>
+        <v>3.214872416093731</v>
       </c>
       <c r="F207">
-        <v>19.72614336451187</v>
+        <v>19.84742663340695</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.157641679746137</v>
+        <v>9.661579201356302</v>
       </c>
       <c r="C208">
-        <v>12.80244549653257</v>
+        <v>8.706019818648281</v>
       </c>
       <c r="D208">
-        <v>8.492801932205941</v>
+        <v>19.83348754898342</v>
       </c>
       <c r="E208">
-        <v>4.407987461344676</v>
+        <v>3.209652660445509</v>
       </c>
       <c r="F208">
-        <v>19.71867149546344</v>
+        <v>19.84057895055884</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>3.100040241611416</v>
+        <v>9.62244268007333</v>
       </c>
       <c r="C209">
-        <v>12.78732795669217</v>
+        <v>8.678040708743882</v>
       </c>
       <c r="D209">
-        <v>8.466311867320739</v>
+        <v>19.82664157197387</v>
       </c>
       <c r="E209">
-        <v>4.403240450416185</v>
+        <v>3.204438930147674</v>
       </c>
       <c r="F209">
-        <v>19.71120045239093</v>
+        <v>19.83373210512733</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>3.042472791106282</v>
+        <v>9.583387302088916</v>
       </c>
       <c r="C210">
-        <v>12.77221629040554</v>
+        <v>8.650088794115854</v>
       </c>
       <c r="D210">
-        <v>8.439853336798935</v>
+        <v>19.8197964328463</v>
       </c>
       <c r="E210">
-        <v>4.398496171748896</v>
+        <v>3.199231223896644</v>
       </c>
       <c r="F210">
-        <v>19.70373023561837</v>
+        <v>19.82688609736411</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.984940546265161</v>
+        <v>9.544413220570924</v>
       </c>
       <c r="C211">
-        <v>12.75711050455276</v>
+        <v>8.622164170045135</v>
       </c>
       <c r="D211">
-        <v>8.413426424650794</v>
+        <v>19.81295213185529</v>
       </c>
       <c r="E211">
-        <v>4.393754626490382</v>
+        <v>3.194029540378453</v>
       </c>
       <c r="F211">
-        <v>19.69626084546979</v>
+        <v>19.82004092752062</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>2.927444787307997</v>
+        <v>9.505520588286293</v>
       </c>
       <c r="C212">
-        <v>12.7420106060224</v>
+        <v>8.594266932186054</v>
       </c>
       <c r="D212">
-        <v>8.387031215056336</v>
+        <v>19.80610866925513</v>
       </c>
       <c r="E212">
-        <v>4.389015815786941</v>
+        <v>3.18883387826719</v>
       </c>
       <c r="F212">
-        <v>19.68879228226942</v>
+        <v>19.81319659584845</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>2.86998686365786</v>
+        <v>9.466709557587221</v>
       </c>
       <c r="C213">
-        <v>12.72691660171177</v>
+        <v>8.56639717656955</v>
       </c>
       <c r="D213">
-        <v>8.360667792367023</v>
+        <v>19.79926604529986</v>
       </c>
       <c r="E213">
-        <v>4.384279740783528</v>
+        <v>3.183644236227908</v>
       </c>
       <c r="F213">
-        <v>19.68132454634153</v>
+        <v>19.80635310259925</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2.812568211822157</v>
+        <v>9.427980280399179</v>
       </c>
       <c r="C214">
-        <v>12.71182849852675</v>
+        <v>8.538554999603585</v>
       </c>
       <c r="D214">
-        <v>8.33433624110458</v>
+        <v>19.79242426024347</v>
       </c>
       <c r="E214">
-        <v>4.37954640262394</v>
+        <v>3.178460612915285</v>
       </c>
       <c r="F214">
-        <v>19.67385763801051</v>
+        <v>19.79951044802466</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2.755190338148725</v>
+        <v>9.389332908205988</v>
       </c>
       <c r="C215">
-        <v>12.69674630338184</v>
+        <v>8.510740498071829</v>
       </c>
       <c r="D215">
-        <v>8.308036645956854</v>
+        <v>19.78558331433984</v>
       </c>
       <c r="E215">
-        <v>4.374815802450666</v>
+        <v>3.173283006973616</v>
       </c>
       <c r="F215">
-        <v>19.66639155760081</v>
+        <v>19.7926686323762</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>2.697854846433154</v>
+        <v>9.350767592060059</v>
       </c>
       <c r="C216">
-        <v>12.68167002320017</v>
+        <v>8.482953769139344</v>
       </c>
       <c r="D216">
-        <v>8.281769091783234</v>
+        <v>19.77874320784266</v>
       </c>
       <c r="E216">
-        <v>4.37008794140493</v>
+        <v>3.168111417035213</v>
       </c>
       <c r="F216">
-        <v>19.65892630543711</v>
+        <v>19.78582765590557</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>2.640563438225177</v>
+        <v>9.312284482559512</v>
       </c>
       <c r="C217">
-        <v>12.66659966491349</v>
+        <v>8.45519491035086</v>
       </c>
       <c r="D217">
-        <v>8.255533663610365</v>
+        <v>19.77190394100553</v>
       </c>
       <c r="E217">
-        <v>4.365362820626685</v>
+        <v>3.162945841723113</v>
       </c>
       <c r="F217">
-        <v>19.65146188184422</v>
+        <v>19.77898751886448</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2.583317906970125</v>
+        <v>9.27388372983633</v>
       </c>
       <c r="C218">
-        <v>12.65153523546223</v>
+        <v>8.427464019632609</v>
       </c>
       <c r="D218">
-        <v>8.229330446632328</v>
+        <v>19.76506551408211</v>
       </c>
       <c r="E218">
-        <v>4.360640441254611</v>
+        <v>3.157786279650567</v>
       </c>
       <c r="F218">
-        <v>19.64399828714686</v>
+        <v>19.7721482215046</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>2.526120181465369</v>
+        <v>9.23556548355389</v>
       </c>
       <c r="C219">
-        <v>12.63647674179538</v>
+        <v>8.399761195288217</v>
       </c>
       <c r="D219">
-        <v>8.203159526203866</v>
+        <v>19.75822792732594</v>
       </c>
       <c r="E219">
-        <v>4.355920804426114</v>
+        <v>3.152632729420235</v>
       </c>
       <c r="F219">
-        <v>19.63653552167007</v>
+        <v>19.76530976407771</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2.46897228966272</v>
+        <v>9.197329892901656</v>
       </c>
       <c r="C220">
-        <v>12.62142419087061</v>
+        <v>8.372086536007455</v>
       </c>
       <c r="D220">
-        <v>8.17702098784733</v>
+        <v>19.75139118099026</v>
       </c>
       <c r="E220">
-        <v>4.351203911277294</v>
+        <v>3.147485189623568</v>
       </c>
       <c r="F220">
-        <v>19.62907358573901</v>
+        <v>19.75847214683563</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>2.411876400108668</v>
+        <v>9.159177106579497</v>
       </c>
       <c r="C221">
-        <v>12.6063775896543</v>
+        <v>8.344440140865869</v>
       </c>
       <c r="D221">
-        <v>8.150914917253175</v>
+        <v>19.74455527532859</v>
       </c>
       <c r="E221">
-        <v>4.346489762942974</v>
+        <v>3.142343658841953</v>
       </c>
       <c r="F221">
-        <v>19.62161247967897</v>
+        <v>19.75163537003019</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>2.354834839785438</v>
+        <v>9.12110727278071</v>
       </c>
       <c r="C222">
-        <v>12.59133694512147</v>
+        <v>8.316822109323324</v>
       </c>
       <c r="D222">
-        <v>8.124841400274132</v>
+        <v>19.73772021059433</v>
       </c>
       <c r="E222">
-        <v>4.341778360556713</v>
+        <v>3.137208135647217</v>
       </c>
       <c r="F222">
-        <v>19.61415220381521</v>
+        <v>19.74479943391329</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>2.297850065286859</v>
+        <v>9.083120539202882</v>
       </c>
       <c r="C223">
-        <v>12.57630226425567</v>
+        <v>8.289232541221727</v>
       </c>
       <c r="D223">
-        <v>8.098800522921833</v>
+        <v>19.73088598704065</v>
       </c>
       <c r="E223">
-        <v>4.337069705250773</v>
+        <v>3.132078618600596</v>
       </c>
       <c r="F223">
-        <v>19.60669275847332</v>
+        <v>19.73796433873691</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>2.240924734500024</v>
+        <v>9.045217053024944</v>
       </c>
       <c r="C224">
-        <v>12.56127355404923</v>
+        <v>8.261671536786574</v>
       </c>
       <c r="D224">
-        <v>8.072792371362276</v>
+        <v>19.72405260492088</v>
       </c>
       <c r="E224">
-        <v>4.33236379815605</v>
+        <v>3.126955106252828</v>
       </c>
       <c r="F224">
-        <v>19.59923414397897</v>
+        <v>19.73113008475307</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>2.18406167663816</v>
+        <v>9.007396960897781</v>
       </c>
       <c r="C225">
-        <v>12.54625082150314</v>
+        <v>8.234139196639202</v>
       </c>
       <c r="D225">
-        <v>8.046817031935353</v>
+        <v>19.71722006448831</v>
       </c>
       <c r="E225">
-        <v>4.327660640402186</v>
+        <v>3.121837597144325</v>
       </c>
       <c r="F225">
-        <v>19.59177636065796</v>
+        <v>19.72429667221381</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>2.127263915063444</v>
+        <v>8.969660408934683</v>
       </c>
       <c r="C226">
-        <v>12.53123407362705</v>
+        <v>8.206635621786333</v>
       </c>
       <c r="D226">
-        <v>8.020874591135858</v>
+        <v>19.71038836599618</v>
       </c>
       <c r="E226">
-        <v>4.322960233117527</v>
+        <v>3.116726089805648</v>
       </c>
       <c r="F226">
-        <v>19.58431940883621</v>
+        <v>19.71746410137128</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>2.070534744385568</v>
+        <v>8.932007542711322</v>
       </c>
       <c r="C227">
-        <v>12.51622331743918</v>
+        <v>8.179160913623045</v>
       </c>
       <c r="D227">
-        <v>7.994965135617275</v>
+        <v>19.7035575096977</v>
       </c>
       <c r="E227">
-        <v>4.318262577429095</v>
+        <v>3.111620582756992</v>
       </c>
       <c r="F227">
-        <v>19.57686328883982</v>
+        <v>19.7106323724777</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>2.013877650182339</v>
+        <v>8.894438507247981</v>
       </c>
       <c r="C228">
-        <v>12.50121855996654</v>
+        <v>8.151715173925645</v>
       </c>
       <c r="D228">
-        <v>7.969088752175949</v>
+        <v>19.69672749584614</v>
       </c>
       <c r="E228">
-        <v>4.31356767446254</v>
+        <v>3.106521074508326</v>
       </c>
       <c r="F228">
-        <v>19.56940800099505</v>
+        <v>19.7038014857853</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.957296428257444</v>
+        <v>8.856953446994122</v>
       </c>
       <c r="C229">
-        <v>12.48621980824477</v>
+        <v>8.124298504872799</v>
       </c>
       <c r="D229">
-        <v>7.943245527782031</v>
+        <v>19.68989832469475</v>
       </c>
       <c r="E229">
-        <v>4.308875525342246</v>
+        <v>3.10142756355939</v>
       </c>
       <c r="F229">
-        <v>19.56195354562828</v>
+        <v>19.6969714415464</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.900795186389906</v>
+        <v>8.819552505832782</v>
       </c>
       <c r="C230">
-        <v>12.4712270693182</v>
+        <v>8.096911009030682</v>
       </c>
       <c r="D230">
-        <v>7.917435549554907</v>
+        <v>19.68306999649679</v>
       </c>
       <c r="E230">
-        <v>4.30418613119125</v>
+        <v>3.096340048399861</v>
       </c>
       <c r="F230">
-        <v>19.55449992306606</v>
+        <v>19.69014224001339</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.84437830637823</v>
+        <v>8.782235827064353</v>
       </c>
       <c r="C231">
-        <v>12.45624035023982</v>
+        <v>8.069552789357962</v>
       </c>
       <c r="D231">
-        <v>7.891658904768246</v>
+        <v>19.67624251150557</v>
       </c>
       <c r="E231">
-        <v>4.299499493131258</v>
+        <v>3.09125852750923</v>
       </c>
       <c r="F231">
-        <v>19.54704713363509</v>
+        <v>19.68331388143873</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.788050612253253</v>
+        <v>8.745003553394907</v>
       </c>
       <c r="C232">
-        <v>12.44125965807131</v>
+        <v>8.042223949199508</v>
       </c>
       <c r="D232">
-        <v>7.8659156808414</v>
+        <v>19.6694158699744</v>
       </c>
       <c r="E232">
-        <v>4.294815612282624</v>
+        <v>3.086182999356804</v>
       </c>
       <c r="F232">
-        <v>19.53959517766225</v>
+        <v>19.67648636607493</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.731817300915402</v>
+        <v>8.707855826922412</v>
       </c>
       <c r="C233">
-        <v>12.42628499988304</v>
+        <v>8.014924592300211</v>
       </c>
       <c r="D233">
-        <v>7.840205965349366</v>
+        <v>19.66259007215659</v>
       </c>
       <c r="E233">
-        <v>4.290134489764373</v>
+        <v>3.081113462401615</v>
       </c>
       <c r="F233">
-        <v>19.53214405547452</v>
+        <v>19.66965969417459</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.675684070096317</v>
+        <v>8.670792789141105</v>
       </c>
       <c r="C234">
-        <v>12.41131638275409</v>
+        <v>7.98765482279853</v>
       </c>
       <c r="D234">
-        <v>7.814529846019892</v>
+        <v>19.65576511830555</v>
       </c>
       <c r="E234">
-        <v>4.285456126694174</v>
+        <v>3.076049915092791</v>
       </c>
       <c r="F234">
-        <v>19.52469376739911</v>
+        <v>19.66283386599035</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.619657113257535</v>
+        <v>8.633814580921088</v>
       </c>
       <c r="C235">
-        <v>12.3963538137722</v>
+        <v>7.960414745227468</v>
       </c>
       <c r="D235">
-        <v>7.788887410728237</v>
+        <v>19.64894100867468</v>
       </c>
       <c r="E235">
-        <v>4.280780524188348</v>
+        <v>3.070992355869275</v>
       </c>
       <c r="F235">
-        <v>19.51724431376335</v>
+        <v>19.65600888177496</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.56374323192612</v>
+        <v>8.596921342495653</v>
       </c>
       <c r="C236">
-        <v>12.38139730003381</v>
+        <v>7.933204464512553</v>
       </c>
       <c r="D236">
-        <v>7.763278747494874</v>
+        <v>19.64211774351741</v>
       </c>
       <c r="E236">
-        <v>4.276107683361858</v>
+        <v>3.065940783159866</v>
       </c>
       <c r="F236">
-        <v>19.50979569489473</v>
+        <v>19.64918474178122</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.507949850580727</v>
+        <v>8.560113213457914</v>
       </c>
       <c r="C237">
-        <v>12.36644684864408</v>
+        <v>7.906024085975781</v>
       </c>
       <c r="D237">
-        <v>7.737703944483707</v>
+        <v>19.63529532308718</v>
       </c>
       <c r="E237">
-        <v>4.271437605328305</v>
+        <v>3.060895195382984</v>
       </c>
       <c r="F237">
-        <v>19.50234791112091</v>
+        <v>19.64236144626199</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.452285177839482</v>
+        <v>8.523390332752253</v>
       </c>
       <c r="C238">
-        <v>12.35150246671685</v>
+        <v>7.878873715339256</v>
       </c>
       <c r="D238">
-        <v>7.712163090010539</v>
+        <v>19.62847374763755</v>
       </c>
       <c r="E238">
-        <v>4.266770291199922</v>
+        <v>3.055855590947308</v>
       </c>
       <c r="F238">
-        <v>19.4949009627697</v>
+        <v>19.63553899547025</v>
       </c>
     </row>
   </sheetData>
